--- a/raw_data/umd/2023/RL_2023-08-07_BBay.xlsx
+++ b/raw_data/umd/2023/RL_2023-08-07_BBay.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samblackburn/Library/CloudStorage/Box-Box/WI Idea Collaboration Grant Data/UMD Sensor Data/Sensors 2023/08_07_23/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samblackburn/Documents/lshabs/raw_data/umd/2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A176991-D760-2946-837B-4F9ADAD95E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AB9948-903A-1342-95AB-5D74D22CB284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3100" yWindow="3320" windowWidth="26040" windowHeight="14940" xr2:uid="{7261E7AE-678E-144C-84EA-E23EC2D91CBC}"/>
   </bookViews>
@@ -20,46 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
-  <si>
-    <t>Location Properties</t>
-  </si>
-  <si>
-    <t>Location Name = SBay2</t>
-  </si>
-  <si>
-    <t>Location ID = cdec9030-30bd-4ddd-a152-b63caca6676c</t>
-  </si>
-  <si>
-    <t>Report Properties</t>
-  </si>
-  <si>
-    <t>Start Time = 2023-08-07 13:29:07</t>
-  </si>
-  <si>
-    <t>Time Offset = -05:00:00</t>
-  </si>
-  <si>
-    <t>Duration = 00:00:45</t>
-  </si>
-  <si>
-    <t>Readings = 46</t>
-  </si>
-  <si>
-    <t>Instrument Properties</t>
-  </si>
-  <si>
-    <t>Device Model = Aqua TROLL 600</t>
-  </si>
-  <si>
-    <t>Device SN = 804550</t>
-  </si>
-  <si>
-    <t>Device Model = PowerPack</t>
-  </si>
-  <si>
-    <t>Device SN = 868976</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Date Time</t>
   </si>
@@ -120,7 +81,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="m/d/yy\ h:mm:ss.000"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss.000"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -627,7 +588,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="11" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1008,9 +969,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD06EC5-CA33-AB41-893B-F850D93CECBF}">
-  <dimension ref="A1:R66"/>
+  <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1034,462 +997,1403 @@
     <col min="19" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-    </row>
-    <row r="5" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-    </row>
-    <row r="11" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-    </row>
-    <row r="15" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>45145.561886574076</v>
+      </c>
+      <c r="B2" s="3">
+        <v>10.6958</v>
+      </c>
+      <c r="C2" s="3">
+        <v>4.3250149999999996</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>2.091008E-10</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.99813989999999997</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.42347839999999998</v>
+      </c>
+      <c r="J2" s="3">
+        <v>20.341460000000001</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0.18886459999999999</v>
+      </c>
+      <c r="L2" s="3">
+        <v>1.0554319999999999</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0.13278499999999999</v>
+      </c>
+      <c r="N2" s="3">
+        <v>1.2072879999999999</v>
+      </c>
+      <c r="O2" s="3">
+        <v>991.55119999999999</v>
+      </c>
+      <c r="P2" s="3">
+        <v>46.849271770000001</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>-91.178969379999998</v>
+      </c>
+      <c r="R2" s="3"/>
+    </row>
+    <row r="3" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>45145.561898148146</v>
+      </c>
+      <c r="B3" s="3">
+        <v>10.690630000000001</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4.3249810000000002</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2.1955130000000001E-10</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.99814009999999997</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.44197690000000001</v>
+      </c>
+      <c r="J3" s="3">
+        <v>20.341539999999998</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.19232869999999999</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1.065766</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0.13522049999999999</v>
+      </c>
+      <c r="N3" s="3">
+        <v>1.2069460000000001</v>
+      </c>
+      <c r="O3" s="3">
+        <v>991.55079999999998</v>
+      </c>
+      <c r="P3" s="3">
+        <v>46.849283560000003</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>-91.178962029999994</v>
+      </c>
+      <c r="R3" s="3"/>
+    </row>
+    <row r="4" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>45145.561909722222</v>
+      </c>
+      <c r="B4" s="3">
+        <v>10.2308</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4.1316280000000001</v>
+      </c>
+      <c r="D4" s="3">
+        <v>76.438389999999998</v>
+      </c>
+      <c r="E4" s="3">
+        <v>86.235799999999998</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4.036671E-2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.99838910000000003</v>
+      </c>
+      <c r="H4" s="3">
+        <v>5.6053270000000002E-2</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.11023769999999999</v>
+      </c>
+      <c r="J4" s="3">
+        <v>19.2468</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.22833039999999999</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1.1484239999999999</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0.16867109999999999</v>
+      </c>
+      <c r="N4" s="3">
+        <v>1.1840809999999999</v>
+      </c>
+      <c r="O4" s="3">
+        <v>991.50800000000004</v>
+      </c>
+      <c r="P4" s="3">
+        <v>46.849283560000003</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>-91.178962029999994</v>
+      </c>
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>45145.561921296299</v>
+      </c>
+      <c r="B5" s="3">
+        <v>10.20369</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4.1223159999999996</v>
+      </c>
+      <c r="D5" s="3">
+        <v>80.494259999999997</v>
+      </c>
+      <c r="E5" s="3">
+        <v>90.811520000000002</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4.2508579999999997E-2</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.99840240000000002</v>
+      </c>
+      <c r="H5" s="3">
+        <v>5.902748E-2</v>
+      </c>
+      <c r="I5" s="3">
+        <v>9.9833060000000001E-2</v>
+      </c>
+      <c r="J5" s="3">
+        <v>19.188639999999999</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.23167479999999999</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1.1560699999999999</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0.1714543</v>
+      </c>
+      <c r="N5" s="3">
+        <v>1.1828650000000001</v>
+      </c>
+      <c r="O5" s="3">
+        <v>991.50530000000003</v>
+      </c>
+      <c r="P5" s="3">
+        <v>46.849283560000003</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>-91.178962029999994</v>
+      </c>
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>45145.561932870369</v>
+      </c>
+      <c r="B6" s="3">
+        <v>10.17658</v>
+      </c>
+      <c r="C6" s="3">
+        <v>4.1130050000000002</v>
+      </c>
+      <c r="D6" s="3">
+        <v>84.550120000000007</v>
+      </c>
+      <c r="E6" s="3">
+        <v>95.387230000000002</v>
+      </c>
+      <c r="F6" s="3">
+        <v>4.4650460000000003E-2</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.99841579999999996</v>
+      </c>
+      <c r="H6" s="3">
+        <v>6.20017E-2</v>
+      </c>
+      <c r="I6" s="3">
+        <v>8.9428419999999995E-2</v>
+      </c>
+      <c r="J6" s="3">
+        <v>19.130490000000002</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.23501910000000001</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1.1637169999999999</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0.17423749999999999</v>
+      </c>
+      <c r="N6" s="3">
+        <v>1.1816489999999999</v>
+      </c>
+      <c r="O6" s="3">
+        <v>991.5027</v>
+      </c>
+      <c r="P6" s="3">
+        <v>46.849283560000003</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>-91.178962029999994</v>
+      </c>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>45145.561944444446</v>
+      </c>
+      <c r="B7" s="3">
+        <v>10.101179999999999</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3.9832839999999998</v>
+      </c>
+      <c r="D7" s="3">
+        <v>86.619079999999997</v>
+      </c>
+      <c r="E7" s="3">
+        <v>98.573980000000006</v>
+      </c>
+      <c r="F7" s="3">
+        <v>4.6151709999999999E-2</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.99849750000000004</v>
+      </c>
+      <c r="H7" s="3">
+        <v>6.4073089999999999E-2</v>
+      </c>
+      <c r="I7" s="3">
+        <v>7.9326030000000006E-2</v>
+      </c>
+      <c r="J7" s="3">
+        <v>18.838750000000001</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.4283689</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1.60232</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0.30230849999999998</v>
+      </c>
+      <c r="N7" s="3">
+        <v>1.158274</v>
+      </c>
+      <c r="O7" s="3">
+        <v>991.50160000000005</v>
+      </c>
+      <c r="P7" s="3">
+        <v>46.849273969999999</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>-91.178958190000003</v>
+      </c>
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>45145.561956018515</v>
+      </c>
+      <c r="B8" s="3">
+        <v>10.08741</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3.972226</v>
+      </c>
+      <c r="D8" s="3">
+        <v>88.359129999999993</v>
+      </c>
+      <c r="E8" s="3">
+        <v>100.5825</v>
+      </c>
+      <c r="F8" s="3">
+        <v>4.7092389999999998E-2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.99850709999999998</v>
+      </c>
+      <c r="H8" s="3">
+        <v>6.5378610000000004E-2</v>
+      </c>
+      <c r="I8" s="3">
+        <v>7.1585830000000003E-2</v>
+      </c>
+      <c r="J8" s="3">
+        <v>18.799869999999999</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.43940839999999998</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1.6273919999999999</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0.3098245</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1.156541</v>
+      </c>
+      <c r="O8" s="3">
+        <v>991.50070000000005</v>
+      </c>
+      <c r="P8" s="3">
+        <v>46.849273969999999</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>-91.178958190000003</v>
+      </c>
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>45145.561967592592</v>
+      </c>
+      <c r="B9" s="3">
+        <v>10.073639999999999</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3.9611679999999998</v>
+      </c>
+      <c r="D9" s="3">
+        <v>90.099180000000004</v>
+      </c>
+      <c r="E9" s="3">
+        <v>102.59099999999999</v>
+      </c>
+      <c r="F9" s="3">
+        <v>4.8033060000000002E-2</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.99851679999999998</v>
+      </c>
+      <c r="H9" s="3">
+        <v>6.6684129999999994E-2</v>
+      </c>
+      <c r="I9" s="3">
+        <v>6.3845650000000004E-2</v>
+      </c>
+      <c r="J9" s="3">
+        <v>18.76099</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.45044790000000001</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1.6524639999999999</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0.31734059999999997</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1.1548069999999999</v>
+      </c>
+      <c r="O9" s="3">
+        <v>991.49969999999996</v>
+      </c>
+      <c r="P9" s="3">
+        <v>46.849273969999999</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>-91.178958190000003</v>
+      </c>
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>45145.561979166669</v>
+      </c>
+      <c r="B10" s="3">
+        <v>10.05988</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3.95011</v>
+      </c>
+      <c r="D10" s="3">
+        <v>91.839240000000004</v>
+      </c>
+      <c r="E10" s="3">
+        <v>104.59950000000001</v>
+      </c>
+      <c r="F10" s="3">
+        <v>4.8973740000000002E-2</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.99852649999999998</v>
+      </c>
+      <c r="H10" s="3">
+        <v>6.7989649999999999E-2</v>
+      </c>
+      <c r="I10" s="3">
+        <v>5.6105460000000003E-2</v>
+      </c>
+      <c r="J10" s="3">
+        <v>18.722110000000001</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.46148729999999999</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1.6775359999999999</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0.3248566</v>
+      </c>
+      <c r="N10" s="3">
+        <v>1.153073</v>
+      </c>
+      <c r="O10" s="3">
+        <v>991.49869999999999</v>
+      </c>
+      <c r="P10" s="3">
+        <v>46.849273969999999</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>-91.178958190000003</v>
+      </c>
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>45145.561990740738</v>
+      </c>
+      <c r="B11" s="3">
+        <v>10.246790000000001</v>
+      </c>
+      <c r="C11" s="3">
+        <v>4.1386640000000003</v>
+      </c>
+      <c r="D11" s="3">
+        <v>90.02158</v>
+      </c>
+      <c r="E11" s="3">
+        <v>102.8764</v>
+      </c>
+      <c r="F11" s="3">
+        <v>4.8169030000000002E-2</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.99854869999999996</v>
+      </c>
+      <c r="H11" s="3">
+        <v>6.6869659999999997E-2</v>
+      </c>
+      <c r="I11" s="3">
+        <v>3.7115540000000002E-2</v>
+      </c>
+      <c r="J11" s="3">
+        <v>18.4726</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0.57432539999999999</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1.9339869999999999</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0.40400730000000001</v>
+      </c>
+      <c r="N11" s="3">
+        <v>1.1615120000000001</v>
+      </c>
+      <c r="O11" s="3">
+        <v>991.49969999999996</v>
+      </c>
+      <c r="P11" s="3">
+        <v>46.849273969999999</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>-91.178958190000003</v>
+      </c>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>45145.562002314815</v>
+      </c>
+      <c r="B12" s="3">
+        <v>10.254239999999999</v>
+      </c>
+      <c r="C12" s="3">
+        <v>4.1450990000000001</v>
+      </c>
+      <c r="D12" s="3">
+        <v>90.018940000000001</v>
+      </c>
+      <c r="E12" s="3">
+        <v>102.90940000000001</v>
+      </c>
+      <c r="F12" s="3">
+        <v>4.81848E-2</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.99855179999999999</v>
+      </c>
+      <c r="H12" s="3">
+        <v>6.6891119999999998E-2</v>
+      </c>
+      <c r="I12" s="3">
+        <v>3.576083E-2</v>
+      </c>
+      <c r="J12" s="3">
+        <v>18.452760000000001</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.58445290000000005</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1.9569859999999999</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0.41094320000000001</v>
+      </c>
+      <c r="N12" s="3">
+        <v>1.1613899999999999</v>
+      </c>
+      <c r="O12" s="3">
+        <v>991.49969999999996</v>
+      </c>
+      <c r="P12" s="3">
+        <v>46.849273969999999</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>-91.178958190000003</v>
+      </c>
+      <c r="R12" s="3"/>
+    </row>
+    <row r="13" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>45145.562013888892</v>
+      </c>
+      <c r="B13" s="3">
+        <v>10.26168</v>
+      </c>
+      <c r="C13" s="3">
+        <v>4.1515339999999998</v>
+      </c>
+      <c r="D13" s="3">
+        <v>90.016300000000001</v>
+      </c>
+      <c r="E13" s="3">
+        <v>102.94240000000001</v>
+      </c>
+      <c r="F13" s="3">
+        <v>4.8200560000000003E-2</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.99855499999999997</v>
+      </c>
+      <c r="H13" s="3">
+        <v>6.6912579999999999E-2</v>
+      </c>
+      <c r="I13" s="3">
+        <v>3.4406119999999998E-2</v>
+      </c>
+      <c r="J13" s="3">
+        <v>18.432919999999999</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0.59458049999999996</v>
+      </c>
+      <c r="L13" s="3">
+        <v>1.9799850000000001</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0.417879</v>
+      </c>
+      <c r="N13" s="3">
+        <v>1.1612690000000001</v>
+      </c>
+      <c r="O13" s="3">
+        <v>991.49969999999996</v>
+      </c>
+      <c r="P13" s="3">
+        <v>46.849273969999999</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>-91.178958190000003</v>
+      </c>
+      <c r="R13" s="3"/>
+    </row>
+    <row r="14" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>45145.562025462961</v>
+      </c>
+      <c r="B14" s="3">
+        <v>10.01146</v>
+      </c>
+      <c r="C14" s="3">
+        <v>4.1793490000000002</v>
+      </c>
+      <c r="D14" s="3">
+        <v>90.028210000000001</v>
+      </c>
+      <c r="E14" s="3">
+        <v>103.4136</v>
+      </c>
+      <c r="F14" s="3">
+        <v>4.8425040000000003E-2</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.99859710000000002</v>
+      </c>
+      <c r="H14" s="3">
+        <v>6.7218860000000005E-2</v>
+      </c>
+      <c r="I14" s="3">
+        <v>5.377614E-2</v>
+      </c>
+      <c r="J14" s="3">
+        <v>18.29402</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0.76298259999999996</v>
+      </c>
+      <c r="L14" s="3">
+        <v>2.3810359999999999</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0.53643019999999997</v>
+      </c>
+      <c r="N14" s="3">
+        <v>1.1382429999999999</v>
+      </c>
+      <c r="O14" s="3">
+        <v>991.49099999999999</v>
+      </c>
+      <c r="P14" s="3">
+        <v>46.849273969999999</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>-91.178958190000003</v>
+      </c>
+      <c r="R14" s="3"/>
+    </row>
+    <row r="15" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>45145.562037037038</v>
+      </c>
+      <c r="B15" s="3">
+        <v>10.002420000000001</v>
+      </c>
+      <c r="C15" s="3">
+        <v>4.1845470000000002</v>
+      </c>
+      <c r="D15" s="3">
+        <v>90.0274</v>
+      </c>
+      <c r="E15" s="3">
+        <v>103.4438</v>
+      </c>
+      <c r="F15" s="3">
+        <v>4.8439400000000001E-2</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.99859989999999998</v>
+      </c>
+      <c r="H15" s="3">
+        <v>6.723846E-2</v>
+      </c>
+      <c r="I15" s="3">
+        <v>5.4192789999999998E-2</v>
+      </c>
+      <c r="J15" s="3">
+        <v>18.28088</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0.77414070000000001</v>
+      </c>
+      <c r="L15" s="3">
+        <v>2.4073259999999999</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0.54427499999999995</v>
+      </c>
+      <c r="N15" s="3">
+        <v>1.1372180000000001</v>
+      </c>
+      <c r="O15" s="3">
+        <v>991.4905</v>
+      </c>
+      <c r="P15" s="3">
+        <v>46.849273969999999</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>-91.178958190000003</v>
+      </c>
+      <c r="R15" s="3"/>
+    </row>
+    <row r="16" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>45145.562048611115</v>
+      </c>
+      <c r="B16" s="3">
+        <v>9.9933840000000007</v>
+      </c>
+      <c r="C16" s="3">
+        <v>4.1897450000000003</v>
+      </c>
+      <c r="D16" s="3">
+        <v>90.026600000000002</v>
+      </c>
+      <c r="E16" s="3">
+        <v>103.4739</v>
+      </c>
+      <c r="F16" s="3">
+        <v>4.8453759999999998E-2</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.99860269999999995</v>
+      </c>
+      <c r="H16" s="3">
+        <v>6.725805E-2</v>
+      </c>
+      <c r="I16" s="3">
+        <v>5.4609440000000002E-2</v>
+      </c>
+      <c r="J16" s="3">
+        <v>18.26774</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0.78529859999999996</v>
+      </c>
+      <c r="L16" s="3">
+        <v>2.4336159999999998</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0.5521199</v>
+      </c>
+      <c r="N16" s="3">
+        <v>1.136193</v>
+      </c>
+      <c r="O16" s="3">
+        <v>991.49009999999998</v>
+      </c>
+      <c r="P16" s="3">
+        <v>46.849273969999999</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>-91.178958190000003</v>
+      </c>
+      <c r="R16" s="3"/>
     </row>
     <row r="17" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="A17" s="4">
+        <v>45145.562060185184</v>
+      </c>
+      <c r="B17" s="3">
+        <v>9.9654880000000006</v>
+      </c>
+      <c r="C17" s="3">
+        <v>4.3581599999999998</v>
+      </c>
+      <c r="D17" s="3">
+        <v>89.980289999999997</v>
+      </c>
+      <c r="E17" s="3">
+        <v>103.6233</v>
+      </c>
+      <c r="F17" s="3">
+        <v>4.8524900000000003E-2</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.99861560000000005</v>
+      </c>
+      <c r="H17" s="3">
+        <v>6.7355159999999997E-2</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.1223355</v>
+      </c>
+      <c r="J17" s="3">
+        <v>18.115089999999999</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1.495795</v>
+      </c>
+      <c r="L17" s="3">
+        <v>4.0727950000000002</v>
+      </c>
+      <c r="M17" s="3">
+        <v>1.0516479999999999</v>
+      </c>
+      <c r="N17" s="3">
+        <v>1.1280410000000001</v>
+      </c>
+      <c r="O17" s="3">
+        <v>991.56769999999995</v>
+      </c>
+      <c r="P17" s="3">
+        <v>46.849273969999999</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>-91.178958190000003</v>
+      </c>
+      <c r="R17" s="3"/>
     </row>
     <row r="18" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
+      <c r="A18" s="4">
+        <v>45145.562071759261</v>
+      </c>
+      <c r="B18" s="3">
+        <v>9.9588249999999992</v>
+      </c>
+      <c r="C18" s="3">
+        <v>4.3674080000000002</v>
+      </c>
+      <c r="D18" s="3">
+        <v>89.978149999999999</v>
+      </c>
+      <c r="E18" s="3">
+        <v>103.6414</v>
+      </c>
+      <c r="F18" s="3">
+        <v>4.8533529999999998E-2</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.99861719999999998</v>
+      </c>
+      <c r="H18" s="3">
+        <v>6.7366919999999997E-2</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.12619820000000001</v>
+      </c>
+      <c r="J18" s="3">
+        <v>18.104099999999999</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1.535852</v>
+      </c>
+      <c r="L18" s="3">
+        <v>4.1654710000000001</v>
+      </c>
+      <c r="M18" s="3">
+        <v>1.0798110000000001</v>
+      </c>
+      <c r="N18" s="3">
+        <v>1.1271310000000001</v>
+      </c>
+      <c r="O18" s="3">
+        <v>991.57150000000001</v>
+      </c>
+      <c r="P18" s="3">
+        <v>46.849273969999999</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-91.178958190000003</v>
+      </c>
+      <c r="R18" s="3"/>
     </row>
     <row r="19" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
+      <c r="A19" s="4">
+        <v>45145.562083333331</v>
+      </c>
+      <c r="B19" s="3">
+        <v>9.9521619999999995</v>
+      </c>
+      <c r="C19" s="3">
+        <v>4.3766559999999997</v>
+      </c>
+      <c r="D19" s="3">
+        <v>89.976010000000002</v>
+      </c>
+      <c r="E19" s="3">
+        <v>103.65949999999999</v>
+      </c>
+      <c r="F19" s="3">
+        <v>4.8542149999999999E-2</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.99861880000000003</v>
+      </c>
+      <c r="H19" s="3">
+        <v>6.7378679999999996E-2</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.13006090000000001</v>
+      </c>
+      <c r="J19" s="3">
+        <v>18.093109999999999</v>
+      </c>
+      <c r="K19" s="3">
+        <v>1.575909</v>
+      </c>
+      <c r="L19" s="3">
+        <v>4.258146</v>
+      </c>
+      <c r="M19" s="3">
+        <v>1.107974</v>
+      </c>
+      <c r="N19" s="3">
+        <v>1.1262209999999999</v>
+      </c>
+      <c r="O19" s="3">
+        <v>991.57529999999997</v>
+      </c>
+      <c r="P19" s="3">
+        <v>46.849273969999999</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>-91.178958190000003</v>
+      </c>
+      <c r="R19" s="3"/>
     </row>
     <row r="20" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="A20" s="4">
+        <v>45145.562094907407</v>
+      </c>
+      <c r="B20" s="3">
+        <v>9.9966640000000009</v>
+      </c>
+      <c r="C20" s="3">
+        <v>4.5589399999999998</v>
+      </c>
+      <c r="D20" s="3">
+        <v>90.110789999999994</v>
+      </c>
+      <c r="E20" s="3">
+        <v>104.10080000000001</v>
+      </c>
+      <c r="F20" s="3">
+        <v>4.8101959999999999E-2</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.99869410000000003</v>
+      </c>
+      <c r="H20" s="3">
+        <v>6.6799220000000006E-2</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.12407020000000001</v>
+      </c>
+      <c r="J20" s="3">
+        <v>17.96649</v>
+      </c>
+      <c r="K20" s="3">
+        <v>3.6345160000000001</v>
+      </c>
+      <c r="L20" s="3">
+        <v>8.9910949999999996</v>
+      </c>
+      <c r="M20" s="3">
+        <v>2.5553189999999999</v>
+      </c>
+      <c r="N20" s="3">
+        <v>1.1340429999999999</v>
+      </c>
+      <c r="O20" s="3">
+        <v>991.55089999999996</v>
+      </c>
+      <c r="P20" s="3">
+        <v>46.849273969999999</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>-91.178958190000003</v>
+      </c>
+      <c r="R20" s="3"/>
     </row>
     <row r="21" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
-        <v>45145.561886574076</v>
+        <v>45145.562106481484</v>
       </c>
       <c r="B21" s="3">
-        <v>10.6958</v>
+        <v>9.9983970000000006</v>
       </c>
       <c r="C21" s="3">
-        <v>4.3250149999999996</v>
+        <v>4.5720539999999996</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>90.116849999999999</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21" s="5">
-        <v>2.091008E-10</v>
+        <v>104.1272</v>
+      </c>
+      <c r="F21" s="3">
+        <v>4.808051E-2</v>
       </c>
       <c r="G21" s="3">
-        <v>0.99813989999999997</v>
+        <v>0.99869839999999999</v>
       </c>
       <c r="H21" s="3">
-        <v>0</v>
+        <v>6.6771049999999998E-2</v>
       </c>
       <c r="I21" s="3">
-        <v>0.42347839999999998</v>
+        <v>0.12517200000000001</v>
       </c>
       <c r="J21" s="3">
-        <v>20.341460000000001</v>
+        <v>17.956569999999999</v>
       </c>
       <c r="K21" s="3">
-        <v>0.18886459999999999</v>
+        <v>3.7571279999999998</v>
       </c>
       <c r="L21" s="3">
-        <v>1.0554319999999999</v>
+        <v>9.2731130000000004</v>
       </c>
       <c r="M21" s="3">
-        <v>0.13278499999999999</v>
+        <v>2.641524</v>
       </c>
       <c r="N21" s="3">
-        <v>1.2072879999999999</v>
+        <v>1.1342779999999999</v>
       </c>
       <c r="O21" s="3">
-        <v>991.55119999999999</v>
+        <v>991.55129999999997</v>
       </c>
       <c r="P21" s="3">
-        <v>46.849271770000001</v>
+        <v>46.849273969999999</v>
       </c>
       <c r="Q21" s="3">
-        <v>-91.178969379999998</v>
+        <v>-91.178958190000003</v>
       </c>
       <c r="R21" s="3"/>
     </row>
     <row r="22" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
-        <v>45145.561898148146</v>
+        <v>45145.562118055554</v>
       </c>
       <c r="B22" s="3">
-        <v>10.690630000000001</v>
+        <v>10.00013</v>
       </c>
       <c r="C22" s="3">
-        <v>4.3249810000000002</v>
+        <v>4.5851680000000004</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>90.122919999999993</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="5">
-        <v>2.1955130000000001E-10</v>
+        <v>104.1536</v>
+      </c>
+      <c r="F22" s="3">
+        <v>4.8059060000000001E-2</v>
       </c>
       <c r="G22" s="3">
-        <v>0.99814009999999997</v>
+        <v>0.9987026</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>6.6742899999999994E-2</v>
       </c>
       <c r="I22" s="3">
-        <v>0.44197690000000001</v>
+        <v>0.12627379999999999</v>
       </c>
       <c r="J22" s="3">
-        <v>20.341539999999998</v>
+        <v>17.946650000000002</v>
       </c>
       <c r="K22" s="3">
-        <v>0.19232869999999999</v>
+        <v>3.87974</v>
       </c>
       <c r="L22" s="3">
-        <v>1.065766</v>
+        <v>9.5551309999999994</v>
       </c>
       <c r="M22" s="3">
-        <v>0.13522049999999999</v>
+        <v>2.7277290000000001</v>
       </c>
       <c r="N22" s="3">
-        <v>1.2069460000000001</v>
+        <v>1.1345130000000001</v>
       </c>
       <c r="O22" s="3">
-        <v>991.55079999999998</v>
+        <v>991.55160000000001</v>
       </c>
       <c r="P22" s="3">
-        <v>46.849283560000003</v>
+        <v>46.849273969999999</v>
       </c>
       <c r="Q22" s="3">
-        <v>-91.178962029999994</v>
+        <v>-91.178958190000003</v>
       </c>
       <c r="R22" s="3"/>
     </row>
     <row r="23" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
-        <v>45145.561909722222</v>
+        <v>45145.56212962963</v>
       </c>
       <c r="B23" s="3">
-        <v>10.2308</v>
+        <v>9.9394589999999994</v>
       </c>
       <c r="C23" s="3">
-        <v>4.1316280000000001</v>
+        <v>4.6174010000000001</v>
       </c>
       <c r="D23" s="3">
-        <v>76.438389999999998</v>
+        <v>71.183580000000006</v>
       </c>
       <c r="E23" s="3">
-        <v>86.235799999999998</v>
+        <v>87.757270000000005</v>
       </c>
       <c r="F23" s="3">
-        <v>4.036671E-2</v>
+        <v>4.0676820000000002E-2</v>
       </c>
       <c r="G23" s="3">
-        <v>0.99838910000000003</v>
+        <v>0.99912789999999996</v>
       </c>
       <c r="H23" s="3">
-        <v>5.6053270000000002E-2</v>
+        <v>5.6936189999999998E-2</v>
       </c>
       <c r="I23" s="3">
-        <v>0.11023769999999999</v>
+        <v>0.1922777</v>
       </c>
       <c r="J23" s="3">
-        <v>19.2468</v>
+        <v>17.65549</v>
       </c>
       <c r="K23" s="3">
-        <v>0.22833039999999999</v>
+        <v>4.8983990000000004</v>
       </c>
       <c r="L23" s="3">
-        <v>1.1484239999999999</v>
+        <v>11.900840000000001</v>
       </c>
       <c r="M23" s="3">
-        <v>0.16867109999999999</v>
+        <v>3.443918</v>
       </c>
       <c r="N23" s="3">
-        <v>1.1840809999999999</v>
+        <v>1.10365</v>
       </c>
       <c r="O23" s="3">
-        <v>991.50800000000004</v>
+        <v>991.55060000000003</v>
       </c>
       <c r="P23" s="3">
-        <v>46.849283560000003</v>
+        <v>46.849273969999999</v>
       </c>
       <c r="Q23" s="3">
-        <v>-91.178962029999994</v>
+        <v>-91.178958190000003</v>
       </c>
       <c r="R23" s="3"/>
     </row>
     <row r="24" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>45145.561921296299</v>
+        <v>45145.562141203707</v>
       </c>
       <c r="B24" s="3">
-        <v>10.20369</v>
+        <v>9.9371270000000003</v>
       </c>
       <c r="C24" s="3">
-        <v>4.1223159999999996</v>
+        <v>4.6230120000000001</v>
       </c>
       <c r="D24" s="3">
-        <v>80.494259999999997</v>
+        <v>70.176749999999998</v>
       </c>
       <c r="E24" s="3">
-        <v>90.811520000000002</v>
+        <v>86.892650000000003</v>
       </c>
       <c r="F24" s="3">
-        <v>4.2508579999999997E-2</v>
+        <v>4.027389E-2</v>
       </c>
       <c r="G24" s="3">
-        <v>0.99840240000000002</v>
+        <v>0.99915209999999999</v>
       </c>
       <c r="H24" s="3">
-        <v>5.902748E-2</v>
+        <v>5.6401029999999998E-2</v>
       </c>
       <c r="I24" s="3">
-        <v>9.9833060000000001E-2</v>
+        <v>0.1956687</v>
       </c>
       <c r="J24" s="3">
-        <v>19.188639999999999</v>
+        <v>17.637239999999998</v>
       </c>
       <c r="K24" s="3">
-        <v>0.23167479999999999</v>
+        <v>4.9967119999999996</v>
       </c>
       <c r="L24" s="3">
-        <v>1.1560699999999999</v>
+        <v>12.12707</v>
       </c>
       <c r="M24" s="3">
-        <v>0.1714543</v>
+        <v>3.5130379999999999</v>
       </c>
       <c r="N24" s="3">
-        <v>1.1828650000000001</v>
+        <v>1.1021669999999999</v>
       </c>
       <c r="O24" s="3">
-        <v>991.50530000000003</v>
+        <v>991.55</v>
       </c>
       <c r="P24" s="3">
-        <v>46.849283560000003</v>
+        <v>46.849273969999999</v>
       </c>
       <c r="Q24" s="3">
-        <v>-91.178962029999994</v>
+        <v>-91.178958190000003</v>
       </c>
       <c r="R24" s="3"/>
     </row>
     <row r="25" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
-        <v>45145.561932870369</v>
+        <v>45145.562152777777</v>
       </c>
       <c r="B25" s="3">
-        <v>10.17658</v>
+        <v>9.9347949999999994</v>
       </c>
       <c r="C25" s="3">
-        <v>4.1130050000000002</v>
+        <v>4.6286230000000002</v>
       </c>
       <c r="D25" s="3">
-        <v>84.550120000000007</v>
+        <v>69.169920000000005</v>
       </c>
       <c r="E25" s="3">
-        <v>95.387230000000002</v>
+        <v>86.028049999999993</v>
       </c>
       <c r="F25" s="3">
-        <v>4.4650460000000003E-2</v>
+        <v>3.9870950000000002E-2</v>
       </c>
       <c r="G25" s="3">
-        <v>0.99841579999999996</v>
+        <v>0.99917639999999996</v>
       </c>
       <c r="H25" s="3">
-        <v>6.20017E-2</v>
+        <v>5.5865869999999998E-2</v>
       </c>
       <c r="I25" s="3">
-        <v>8.9428419999999995E-2</v>
+        <v>0.1990596</v>
       </c>
       <c r="J25" s="3">
-        <v>19.130490000000002</v>
+        <v>17.61899</v>
       </c>
       <c r="K25" s="3">
-        <v>0.23501910000000001</v>
+        <v>5.0950249999999997</v>
       </c>
       <c r="L25" s="3">
-        <v>1.1637169999999999</v>
+        <v>12.353300000000001</v>
       </c>
       <c r="M25" s="3">
-        <v>0.17423749999999999</v>
+        <v>3.5821589999999999</v>
       </c>
       <c r="N25" s="3">
-        <v>1.1816489999999999</v>
+        <v>1.1006849999999999</v>
       </c>
       <c r="O25" s="3">
-        <v>991.5027</v>
+        <v>991.54939999999999</v>
       </c>
       <c r="P25" s="3">
-        <v>46.849283560000003</v>
+        <v>46.849273969999999</v>
       </c>
       <c r="Q25" s="3">
-        <v>-91.178962029999994</v>
+        <v>-91.178958190000003</v>
       </c>
       <c r="R25" s="3"/>
     </row>
     <row r="26" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
-        <v>45145.561944444446</v>
+        <v>45145.562164351853</v>
       </c>
       <c r="B26" s="3">
-        <v>10.101179999999999</v>
+        <v>9.8474459999999997</v>
       </c>
       <c r="C26" s="3">
-        <v>3.9832839999999998</v>
+        <v>4.8559169999999998</v>
       </c>
       <c r="D26" s="3">
-        <v>86.619079999999997</v>
+        <v>67.557199999999995</v>
       </c>
       <c r="E26" s="3">
-        <v>98.573980000000006</v>
+        <v>87.602630000000005</v>
       </c>
       <c r="F26" s="3">
-        <v>4.6151709999999999E-2</v>
+        <v>4.057115E-2</v>
       </c>
       <c r="G26" s="3">
-        <v>0.99849750000000004</v>
+        <v>0.99950589999999995</v>
       </c>
       <c r="H26" s="3">
-        <v>6.4073089999999999E-2</v>
+        <v>5.7645349999999998E-2</v>
       </c>
       <c r="I26" s="3">
-        <v>7.9326030000000006E-2</v>
+        <v>0.21605009999999999</v>
       </c>
       <c r="J26" s="3">
-        <v>18.838750000000001</v>
+        <v>13.33713</v>
       </c>
       <c r="K26" s="3">
-        <v>0.4283689</v>
+        <v>7.0925700000000003</v>
       </c>
       <c r="L26" s="3">
-        <v>1.60232</v>
+        <v>16.956800000000001</v>
       </c>
       <c r="M26" s="3">
-        <v>0.30230849999999998</v>
+        <v>4.9865729999999999</v>
       </c>
       <c r="N26" s="3">
-        <v>1.158274</v>
+        <v>1.0847709999999999</v>
       </c>
       <c r="O26" s="3">
-        <v>991.50160000000005</v>
+        <v>991.54110000000003</v>
       </c>
       <c r="P26" s="3">
         <v>46.849273969999999</v>
@@ -1501,49 +2405,49 @@
     </row>
     <row r="27" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
-        <v>45145.561956018515</v>
+        <v>45145.562175925923</v>
       </c>
       <c r="B27" s="3">
-        <v>10.08741</v>
+        <v>9.8414970000000004</v>
       </c>
       <c r="C27" s="3">
-        <v>3.972226</v>
+        <v>4.8686410000000002</v>
       </c>
       <c r="D27" s="3">
-        <v>88.359129999999993</v>
+        <v>67.054239999999993</v>
       </c>
       <c r="E27" s="3">
-        <v>100.5825</v>
+        <v>87.323909999999998</v>
       </c>
       <c r="F27" s="3">
-        <v>4.7092389999999998E-2</v>
+        <v>4.0445189999999999E-2</v>
       </c>
       <c r="G27" s="3">
-        <v>0.99850709999999998</v>
+        <v>0.99953259999999999</v>
       </c>
       <c r="H27" s="3">
-        <v>6.5378610000000004E-2</v>
+        <v>5.7522829999999997E-2</v>
       </c>
       <c r="I27" s="3">
-        <v>7.1585830000000003E-2</v>
+        <v>0.21841240000000001</v>
       </c>
       <c r="J27" s="3">
-        <v>18.799869999999999</v>
+        <v>13.10486</v>
       </c>
       <c r="K27" s="3">
-        <v>0.43940839999999998</v>
+        <v>7.2205029999999999</v>
       </c>
       <c r="L27" s="3">
-        <v>1.6273919999999999</v>
+        <v>17.2516</v>
       </c>
       <c r="M27" s="3">
-        <v>0.3098245</v>
+        <v>5.0765190000000002</v>
       </c>
       <c r="N27" s="3">
-        <v>1.156541</v>
+        <v>1.0832489999999999</v>
       </c>
       <c r="O27" s="3">
-        <v>991.50070000000005</v>
+        <v>991.54060000000004</v>
       </c>
       <c r="P27" s="3">
         <v>46.849273969999999</v>
@@ -1555,49 +2459,49 @@
     </row>
     <row r="28" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
-        <v>45145.561967592592</v>
+        <v>45145.5621875</v>
       </c>
       <c r="B28" s="3">
-        <v>10.073639999999999</v>
+        <v>9.8355479999999993</v>
       </c>
       <c r="C28" s="3">
-        <v>3.9611679999999998</v>
+        <v>4.8813649999999997</v>
       </c>
       <c r="D28" s="3">
-        <v>90.099180000000004</v>
+        <v>66.551280000000006</v>
       </c>
       <c r="E28" s="3">
-        <v>102.59099999999999</v>
+        <v>87.045190000000005</v>
       </c>
       <c r="F28" s="3">
-        <v>4.8033060000000002E-2</v>
+        <v>4.0319250000000001E-2</v>
       </c>
       <c r="G28" s="3">
-        <v>0.99851679999999998</v>
+        <v>0.99955939999999999</v>
       </c>
       <c r="H28" s="3">
-        <v>6.6684129999999994E-2</v>
+        <v>5.7400310000000003E-2</v>
       </c>
       <c r="I28" s="3">
-        <v>6.3845650000000004E-2</v>
+        <v>0.22077469999999999</v>
       </c>
       <c r="J28" s="3">
-        <v>18.76099</v>
+        <v>12.872579999999999</v>
       </c>
       <c r="K28" s="3">
-        <v>0.45044790000000001</v>
+        <v>7.3484369999999997</v>
       </c>
       <c r="L28" s="3">
-        <v>1.6524639999999999</v>
+        <v>17.546389999999999</v>
       </c>
       <c r="M28" s="3">
-        <v>0.31734059999999997</v>
+        <v>5.1664649999999996</v>
       </c>
       <c r="N28" s="3">
-        <v>1.1548069999999999</v>
+        <v>1.081728</v>
       </c>
       <c r="O28" s="3">
-        <v>991.49969999999996</v>
+        <v>991.54020000000003</v>
       </c>
       <c r="P28" s="3">
         <v>46.849273969999999</v>
@@ -1609,49 +2513,49 @@
     </row>
     <row r="29" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
-        <v>45145.561979166669</v>
+        <v>45145.562199074076</v>
       </c>
       <c r="B29" s="3">
-        <v>10.05988</v>
+        <v>9.9383409999999994</v>
       </c>
       <c r="C29" s="3">
-        <v>3.95011</v>
+        <v>5.0712039999999998</v>
       </c>
       <c r="D29" s="3">
-        <v>91.839240000000004</v>
+        <v>65.470830000000007</v>
       </c>
       <c r="E29" s="3">
-        <v>104.59950000000001</v>
+        <v>89.082210000000003</v>
       </c>
       <c r="F29" s="3">
-        <v>4.8973740000000002E-2</v>
+        <v>4.1199140000000002E-2</v>
       </c>
       <c r="G29" s="3">
-        <v>0.99852649999999998</v>
+        <v>0.99963449999999998</v>
       </c>
       <c r="H29" s="3">
-        <v>6.7989649999999999E-2</v>
+        <v>5.800085E-2</v>
       </c>
       <c r="I29" s="3">
-        <v>5.6105460000000003E-2</v>
+        <v>0.2979464</v>
       </c>
       <c r="J29" s="3">
-        <v>18.722110000000001</v>
+        <v>11.92445</v>
       </c>
       <c r="K29" s="3">
-        <v>0.46148729999999999</v>
+        <v>8.3271999999999995</v>
       </c>
       <c r="L29" s="3">
-        <v>1.6775359999999999</v>
+        <v>19.821210000000001</v>
       </c>
       <c r="M29" s="3">
-        <v>0.3248566</v>
+        <v>5.8546040000000001</v>
       </c>
       <c r="N29" s="3">
-        <v>1.153073</v>
+        <v>1.058646</v>
       </c>
       <c r="O29" s="3">
-        <v>991.49869999999999</v>
+        <v>991.50599999999997</v>
       </c>
       <c r="P29" s="3">
         <v>46.849273969999999</v>
@@ -1663,49 +2567,49 @@
     </row>
     <row r="30" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
-        <v>45145.561990740738</v>
+        <v>45145.562210648146</v>
       </c>
       <c r="B30" s="3">
-        <v>10.246790000000001</v>
+        <v>9.9419389999999996</v>
       </c>
       <c r="C30" s="3">
-        <v>4.1386640000000003</v>
+        <v>5.0861970000000003</v>
       </c>
       <c r="D30" s="3">
-        <v>90.02158</v>
+        <v>65.376509999999996</v>
       </c>
       <c r="E30" s="3">
-        <v>102.8764</v>
+        <v>89.222239999999999</v>
       </c>
       <c r="F30" s="3">
-        <v>4.8169030000000002E-2</v>
+        <v>4.1259900000000002E-2</v>
       </c>
       <c r="G30" s="3">
-        <v>0.99854869999999996</v>
+        <v>0.99964560000000002</v>
       </c>
       <c r="H30" s="3">
-        <v>6.6869659999999997E-2</v>
+        <v>5.8069519999999999E-2</v>
       </c>
       <c r="I30" s="3">
-        <v>3.7115540000000002E-2</v>
+        <v>0.3024212</v>
       </c>
       <c r="J30" s="3">
-        <v>18.4726</v>
+        <v>11.78238</v>
       </c>
       <c r="K30" s="3">
-        <v>0.57432539999999999</v>
+        <v>8.4224619999999994</v>
       </c>
       <c r="L30" s="3">
-        <v>1.9339869999999999</v>
+        <v>20.04177</v>
       </c>
       <c r="M30" s="3">
-        <v>0.40400730000000001</v>
+        <v>5.9215809999999998</v>
       </c>
       <c r="N30" s="3">
-        <v>1.1615120000000001</v>
+        <v>1.0570759999999999</v>
       </c>
       <c r="O30" s="3">
-        <v>991.49969999999996</v>
+        <v>991.50400000000002</v>
       </c>
       <c r="P30" s="3">
         <v>46.849273969999999</v>
@@ -1717,49 +2621,49 @@
     </row>
     <row r="31" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
-        <v>45145.562002314815</v>
+        <v>45145.562222222223</v>
       </c>
       <c r="B31" s="3">
-        <v>10.254239999999999</v>
+        <v>9.9455369999999998</v>
       </c>
       <c r="C31" s="3">
-        <v>4.1450990000000001</v>
+        <v>5.1011899999999999</v>
       </c>
       <c r="D31" s="3">
-        <v>90.018940000000001</v>
+        <v>65.28219</v>
       </c>
       <c r="E31" s="3">
-        <v>102.90940000000001</v>
+        <v>89.362269999999995</v>
       </c>
       <c r="F31" s="3">
-        <v>4.81848E-2</v>
+        <v>4.1320669999999997E-2</v>
       </c>
       <c r="G31" s="3">
-        <v>0.99855179999999999</v>
+        <v>0.99965669999999995</v>
       </c>
       <c r="H31" s="3">
-        <v>6.6891119999999998E-2</v>
+        <v>5.8138189999999999E-2</v>
       </c>
       <c r="I31" s="3">
-        <v>3.576083E-2</v>
+        <v>0.30689610000000001</v>
       </c>
       <c r="J31" s="3">
-        <v>18.452760000000001</v>
+        <v>11.6403</v>
       </c>
       <c r="K31" s="3">
-        <v>0.58445290000000005</v>
+        <v>8.5177259999999997</v>
       </c>
       <c r="L31" s="3">
-        <v>1.9569859999999999</v>
+        <v>20.262329999999999</v>
       </c>
       <c r="M31" s="3">
-        <v>0.41094320000000001</v>
+        <v>5.9885570000000001</v>
       </c>
       <c r="N31" s="3">
-        <v>1.1613899999999999</v>
+        <v>1.0555049999999999</v>
       </c>
       <c r="O31" s="3">
-        <v>991.49969999999996</v>
+        <v>991.50199999999995</v>
       </c>
       <c r="P31" s="3">
         <v>46.849273969999999</v>
@@ -1771,49 +2675,49 @@
     </row>
     <row r="32" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
-        <v>45145.562013888892</v>
+        <v>45145.5622337963</v>
       </c>
       <c r="B32" s="3">
-        <v>10.26168</v>
+        <v>10.0618</v>
       </c>
       <c r="C32" s="3">
-        <v>4.1515339999999998</v>
+        <v>5.534821</v>
       </c>
       <c r="D32" s="3">
-        <v>90.016300000000001</v>
+        <v>64.434569999999994</v>
       </c>
       <c r="E32" s="3">
-        <v>102.94240000000001</v>
+        <v>89.900630000000007</v>
       </c>
       <c r="F32" s="3">
-        <v>4.8200560000000003E-2</v>
+        <v>4.1524529999999997E-2</v>
       </c>
       <c r="G32" s="3">
-        <v>0.99855499999999997</v>
+        <v>0.99972179999999999</v>
       </c>
       <c r="H32" s="3">
-        <v>6.6912579999999999E-2</v>
+        <v>5.8467110000000003E-2</v>
       </c>
       <c r="I32" s="3">
-        <v>3.4406119999999998E-2</v>
+        <v>0.50505350000000004</v>
       </c>
       <c r="J32" s="3">
-        <v>18.432919999999999</v>
+        <v>10.265309999999999</v>
       </c>
       <c r="K32" s="3">
-        <v>0.59458049999999996</v>
+        <v>8.7315369999999994</v>
       </c>
       <c r="L32" s="3">
-        <v>1.9799850000000001</v>
+        <v>22.61591</v>
       </c>
       <c r="M32" s="3">
-        <v>0.417879</v>
+        <v>6.7057950000000002</v>
       </c>
       <c r="N32" s="3">
-        <v>1.1612690000000001</v>
+        <v>1.001603</v>
       </c>
       <c r="O32" s="3">
-        <v>991.49969999999996</v>
+        <v>991.50120000000004</v>
       </c>
       <c r="P32" s="3">
         <v>46.849273969999999</v>
@@ -1825,49 +2729,49 @@
     </row>
     <row r="33" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
-        <v>45145.562025462961</v>
+        <v>45145.562245370369</v>
       </c>
       <c r="B33" s="3">
-        <v>10.01146</v>
+        <v>10.07024</v>
       </c>
       <c r="C33" s="3">
-        <v>4.1793490000000002</v>
+        <v>5.5620190000000003</v>
       </c>
       <c r="D33" s="3">
-        <v>90.028210000000001</v>
+        <v>64.363050000000001</v>
       </c>
       <c r="E33" s="3">
-        <v>103.4136</v>
+        <v>89.969679999999997</v>
       </c>
       <c r="F33" s="3">
-        <v>4.8425040000000003E-2</v>
+        <v>4.1552770000000003E-2</v>
       </c>
       <c r="G33" s="3">
-        <v>0.99859710000000002</v>
+        <v>0.99972689999999997</v>
       </c>
       <c r="H33" s="3">
-        <v>6.7218860000000005E-2</v>
+        <v>5.8495289999999998E-2</v>
       </c>
       <c r="I33" s="3">
-        <v>5.377614E-2</v>
+        <v>0.51731090000000002</v>
       </c>
       <c r="J33" s="3">
-        <v>18.29402</v>
+        <v>10.172610000000001</v>
       </c>
       <c r="K33" s="3">
-        <v>0.76298259999999996</v>
+        <v>8.7635889999999996</v>
       </c>
       <c r="L33" s="3">
-        <v>2.3810359999999999</v>
+        <v>22.789660000000001</v>
       </c>
       <c r="M33" s="3">
-        <v>0.53643019999999997</v>
+        <v>6.7586360000000001</v>
       </c>
       <c r="N33" s="3">
-        <v>1.1382429999999999</v>
+        <v>0.99822489999999997</v>
       </c>
       <c r="O33" s="3">
-        <v>991.49099999999999</v>
+        <v>991.50040000000001</v>
       </c>
       <c r="P33" s="3">
         <v>46.849273969999999</v>
@@ -1879,49 +2783,49 @@
     </row>
     <row r="34" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
-        <v>45145.562037037038</v>
+        <v>45145.562256944446</v>
       </c>
       <c r="B34" s="3">
-        <v>10.002420000000001</v>
+        <v>10.078670000000001</v>
       </c>
       <c r="C34" s="3">
-        <v>4.1845470000000002</v>
+        <v>5.5892160000000004</v>
       </c>
       <c r="D34" s="3">
-        <v>90.0274</v>
+        <v>64.291529999999995</v>
       </c>
       <c r="E34" s="3">
-        <v>103.4438</v>
+        <v>90.038740000000004</v>
       </c>
       <c r="F34" s="3">
-        <v>4.8439400000000001E-2</v>
+        <v>4.1581E-2</v>
       </c>
       <c r="G34" s="3">
-        <v>0.99859989999999998</v>
+        <v>0.99973199999999995</v>
       </c>
       <c r="H34" s="3">
-        <v>6.723846E-2</v>
+        <v>5.8523470000000001E-2</v>
       </c>
       <c r="I34" s="3">
-        <v>5.4192789999999998E-2</v>
+        <v>0.52956829999999999</v>
       </c>
       <c r="J34" s="3">
-        <v>18.28088</v>
+        <v>10.07991</v>
       </c>
       <c r="K34" s="3">
-        <v>0.77414070000000001</v>
+        <v>8.7956400000000006</v>
       </c>
       <c r="L34" s="3">
-        <v>2.4073259999999999</v>
+        <v>22.963419999999999</v>
       </c>
       <c r="M34" s="3">
-        <v>0.54427499999999995</v>
+        <v>6.8114780000000001</v>
       </c>
       <c r="N34" s="3">
-        <v>1.1372180000000001</v>
+        <v>0.99484669999999997</v>
       </c>
       <c r="O34" s="3">
-        <v>991.4905</v>
+        <v>991.49959999999999</v>
       </c>
       <c r="P34" s="3">
         <v>46.849273969999999</v>
@@ -1933,49 +2837,49 @@
     </row>
     <row r="35" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
-        <v>45145.562048611115</v>
+        <v>45145.562268518515</v>
       </c>
       <c r="B35" s="3">
-        <v>9.9933840000000007</v>
+        <v>10.04541</v>
       </c>
       <c r="C35" s="3">
-        <v>4.1897450000000003</v>
+        <v>5.7668929999999996</v>
       </c>
       <c r="D35" s="3">
-        <v>90.026600000000002</v>
+        <v>63.617570000000001</v>
       </c>
       <c r="E35" s="3">
-        <v>103.4739</v>
+        <v>91.019729999999996</v>
       </c>
       <c r="F35" s="3">
-        <v>4.8453759999999998E-2</v>
+        <v>4.1983010000000001E-2</v>
       </c>
       <c r="G35" s="3">
-        <v>0.99860269999999995</v>
+        <v>0.99979709999999999</v>
       </c>
       <c r="H35" s="3">
-        <v>6.725805E-2</v>
+        <v>5.916283E-2</v>
       </c>
       <c r="I35" s="3">
-        <v>5.4609440000000002E-2</v>
+        <v>0.41264830000000002</v>
       </c>
       <c r="J35" s="3">
-        <v>18.26774</v>
+        <v>9.8567149999999994</v>
       </c>
       <c r="K35" s="3">
-        <v>0.78529859999999996</v>
+        <v>10.852790000000001</v>
       </c>
       <c r="L35" s="3">
-        <v>2.4336159999999998</v>
+        <v>25.910979999999999</v>
       </c>
       <c r="M35" s="3">
-        <v>0.5521199</v>
+        <v>7.7091909999999997</v>
       </c>
       <c r="N35" s="3">
-        <v>1.136193</v>
+        <v>0.96306139999999996</v>
       </c>
       <c r="O35" s="3">
-        <v>991.49009999999998</v>
+        <v>991.53340000000003</v>
       </c>
       <c r="P35" s="3">
         <v>46.849273969999999</v>
@@ -1987,49 +2891,49 @@
     </row>
     <row r="36" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
-        <v>45145.562060185184</v>
+        <v>45145.562280092592</v>
       </c>
       <c r="B36" s="3">
-        <v>9.9654880000000006</v>
+        <v>10.046060000000001</v>
       </c>
       <c r="C36" s="3">
-        <v>4.3581599999999998</v>
+        <v>5.7856759999999996</v>
       </c>
       <c r="D36" s="3">
-        <v>89.980289999999997</v>
+        <v>63.563569999999999</v>
       </c>
       <c r="E36" s="3">
-        <v>103.6233</v>
+        <v>91.083370000000002</v>
       </c>
       <c r="F36" s="3">
-        <v>4.8524900000000003E-2</v>
+        <v>4.2008719999999999E-2</v>
       </c>
       <c r="G36" s="3">
-        <v>0.99861560000000005</v>
+        <v>0.99980199999999997</v>
       </c>
       <c r="H36" s="3">
-        <v>6.7355159999999997E-2</v>
+        <v>5.9204189999999997E-2</v>
       </c>
       <c r="I36" s="3">
-        <v>0.1223355</v>
+        <v>0.41058230000000001</v>
       </c>
       <c r="J36" s="3">
-        <v>18.115089999999999</v>
+        <v>9.8152519999999992</v>
       </c>
       <c r="K36" s="3">
-        <v>1.495795</v>
+        <v>10.96768</v>
       </c>
       <c r="L36" s="3">
-        <v>4.0727950000000002</v>
+        <v>26.11928</v>
       </c>
       <c r="M36" s="3">
-        <v>1.0516479999999999</v>
+        <v>7.7726430000000004</v>
       </c>
       <c r="N36" s="3">
-        <v>1.1280410000000001</v>
+        <v>0.96020660000000002</v>
       </c>
       <c r="O36" s="3">
-        <v>991.56769999999995</v>
+        <v>991.53520000000003</v>
       </c>
       <c r="P36" s="3">
         <v>46.849273969999999</v>
@@ -2041,49 +2945,49 @@
     </row>
     <row r="37" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
-        <v>45145.562071759261</v>
+        <v>45145.562291666669</v>
       </c>
       <c r="B37" s="3">
-        <v>9.9588249999999992</v>
+        <v>10.046720000000001</v>
       </c>
       <c r="C37" s="3">
-        <v>4.3674080000000002</v>
+        <v>5.8044580000000003</v>
       </c>
       <c r="D37" s="3">
-        <v>89.978149999999999</v>
+        <v>63.50958</v>
       </c>
       <c r="E37" s="3">
-        <v>103.6414</v>
+        <v>91.147019999999998</v>
       </c>
       <c r="F37" s="3">
-        <v>4.8533529999999998E-2</v>
+        <v>4.2034439999999999E-2</v>
       </c>
       <c r="G37" s="3">
-        <v>0.99861719999999998</v>
+        <v>0.99980690000000005</v>
       </c>
       <c r="H37" s="3">
-        <v>6.7366919999999997E-2</v>
+        <v>5.9245560000000003E-2</v>
       </c>
       <c r="I37" s="3">
-        <v>0.12619820000000001</v>
+        <v>0.4085163</v>
       </c>
       <c r="J37" s="3">
-        <v>18.104099999999999</v>
+        <v>9.7737879999999997</v>
       </c>
       <c r="K37" s="3">
-        <v>1.535852</v>
+        <v>11.08258</v>
       </c>
       <c r="L37" s="3">
-        <v>4.1654710000000001</v>
+        <v>26.327580000000001</v>
       </c>
       <c r="M37" s="3">
-        <v>1.0798110000000001</v>
+        <v>7.8360940000000001</v>
       </c>
       <c r="N37" s="3">
-        <v>1.1271310000000001</v>
+        <v>0.95735170000000003</v>
       </c>
       <c r="O37" s="3">
-        <v>991.57150000000001</v>
+        <v>991.53700000000003</v>
       </c>
       <c r="P37" s="3">
         <v>46.849273969999999</v>
@@ -2095,49 +2999,49 @@
     </row>
     <row r="38" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
-        <v>45145.562083333331</v>
+        <v>45145.562303240738</v>
       </c>
       <c r="B38" s="3">
-        <v>9.9521619999999995</v>
+        <v>10.305400000000001</v>
       </c>
       <c r="C38" s="3">
-        <v>4.3766559999999997</v>
+        <v>6.1607070000000004</v>
       </c>
       <c r="D38" s="3">
-        <v>89.976010000000002</v>
+        <v>63.436599999999999</v>
       </c>
       <c r="E38" s="3">
-        <v>103.65949999999999</v>
+        <v>91.961160000000007</v>
       </c>
       <c r="F38" s="3">
-        <v>4.8542149999999999E-2</v>
+        <v>4.2389679999999999E-2</v>
       </c>
       <c r="G38" s="3">
-        <v>0.99861880000000003</v>
+        <v>0.99983379999999999</v>
       </c>
       <c r="H38" s="3">
-        <v>6.7378679999999996E-2</v>
+        <v>5.9774750000000001E-2</v>
       </c>
       <c r="I38" s="3">
-        <v>0.13006090000000001</v>
+        <v>0.47020050000000002</v>
       </c>
       <c r="J38" s="3">
-        <v>18.093109999999999</v>
+        <v>8.8465550000000004</v>
       </c>
       <c r="K38" s="3">
-        <v>1.575909</v>
+        <v>12.21762</v>
       </c>
       <c r="L38" s="3">
-        <v>4.258146</v>
+        <v>28.868210000000001</v>
       </c>
       <c r="M38" s="3">
-        <v>1.107974</v>
+        <v>8.6171039999999994</v>
       </c>
       <c r="N38" s="3">
-        <v>1.1262209999999999</v>
+        <v>0.9037345</v>
       </c>
       <c r="O38" s="3">
-        <v>991.57529999999997</v>
+        <v>991.47940000000006</v>
       </c>
       <c r="P38" s="3">
         <v>46.849273969999999</v>
@@ -2149,49 +3053,49 @@
     </row>
     <row r="39" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
-        <v>45145.562094907407</v>
+        <v>45145.562314814815</v>
       </c>
       <c r="B39" s="3">
-        <v>9.9966640000000009</v>
+        <v>10.31851</v>
       </c>
       <c r="C39" s="3">
-        <v>4.5589399999999998</v>
+        <v>6.1833989999999996</v>
       </c>
       <c r="D39" s="3">
-        <v>90.110789999999994</v>
+        <v>63.418660000000003</v>
       </c>
       <c r="E39" s="3">
-        <v>104.10080000000001</v>
+        <v>92.025689999999997</v>
       </c>
       <c r="F39" s="3">
-        <v>4.8101959999999999E-2</v>
+        <v>4.2417299999999998E-2</v>
       </c>
       <c r="G39" s="3">
-        <v>0.99869410000000003</v>
+        <v>0.99983659999999996</v>
       </c>
       <c r="H39" s="3">
-        <v>6.6799220000000006E-2</v>
+        <v>5.98167E-2</v>
       </c>
       <c r="I39" s="3">
-        <v>0.12407020000000001</v>
+        <v>0.47089750000000002</v>
       </c>
       <c r="J39" s="3">
-        <v>17.96649</v>
+        <v>8.7927429999999998</v>
       </c>
       <c r="K39" s="3">
-        <v>3.6345160000000001</v>
+        <v>12.322559999999999</v>
       </c>
       <c r="L39" s="3">
-        <v>8.9910949999999996</v>
+        <v>29.06653</v>
       </c>
       <c r="M39" s="3">
-        <v>2.5553189999999999</v>
+        <v>8.6778919999999999</v>
       </c>
       <c r="N39" s="3">
-        <v>1.1340429999999999</v>
+        <v>0.90020480000000003</v>
       </c>
       <c r="O39" s="3">
-        <v>991.55089999999996</v>
+        <v>991.47709999999995</v>
       </c>
       <c r="P39" s="3">
         <v>46.849273969999999</v>
@@ -2203,49 +3107,49 @@
     </row>
     <row r="40" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
-        <v>45145.562106481484</v>
+        <v>45145.562326388892</v>
       </c>
       <c r="B40" s="3">
-        <v>9.9983970000000006</v>
+        <v>10.331619999999999</v>
       </c>
       <c r="C40" s="3">
-        <v>4.5720539999999996</v>
+        <v>6.2060919999999999</v>
       </c>
       <c r="D40" s="3">
-        <v>90.116849999999999</v>
+        <v>63.400709999999997</v>
       </c>
       <c r="E40" s="3">
-        <v>104.1272</v>
+        <v>92.090220000000002</v>
       </c>
       <c r="F40" s="3">
-        <v>4.808051E-2</v>
+        <v>4.2444910000000002E-2</v>
       </c>
       <c r="G40" s="3">
-        <v>0.99869839999999999</v>
+        <v>0.99983940000000004</v>
       </c>
       <c r="H40" s="3">
-        <v>6.6771049999999998E-2</v>
+        <v>5.9858639999999998E-2</v>
       </c>
       <c r="I40" s="3">
-        <v>0.12517200000000001</v>
+        <v>0.47159450000000003</v>
       </c>
       <c r="J40" s="3">
-        <v>17.956569999999999</v>
+        <v>8.7389320000000001</v>
       </c>
       <c r="K40" s="3">
-        <v>3.7571279999999998</v>
+        <v>12.4275</v>
       </c>
       <c r="L40" s="3">
-        <v>9.2731130000000004</v>
+        <v>29.264849999999999</v>
       </c>
       <c r="M40" s="3">
-        <v>2.641524</v>
+        <v>8.7386789999999994</v>
       </c>
       <c r="N40" s="3">
-        <v>1.1342779999999999</v>
+        <v>0.89667520000000001</v>
       </c>
       <c r="O40" s="3">
-        <v>991.55129999999997</v>
+        <v>991.47469999999998</v>
       </c>
       <c r="P40" s="3">
         <v>46.849273969999999</v>
@@ -2257,49 +3161,49 @@
     </row>
     <row r="41" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
-        <v>45145.562118055554</v>
+        <v>45145.562337962961</v>
       </c>
       <c r="B41" s="3">
-        <v>10.00013</v>
+        <v>10.34474</v>
       </c>
       <c r="C41" s="3">
-        <v>4.5851680000000004</v>
+        <v>6.2287850000000002</v>
       </c>
       <c r="D41" s="3">
-        <v>90.122919999999993</v>
+        <v>63.382759999999998</v>
       </c>
       <c r="E41" s="3">
-        <v>104.1536</v>
+        <v>92.154750000000007</v>
       </c>
       <c r="F41" s="3">
-        <v>4.8059060000000001E-2</v>
+        <v>4.2472530000000001E-2</v>
       </c>
       <c r="G41" s="3">
-        <v>0.9987026</v>
+        <v>0.99984220000000001</v>
       </c>
       <c r="H41" s="3">
-        <v>6.6742899999999994E-2</v>
+        <v>5.9900580000000002E-2</v>
       </c>
       <c r="I41" s="3">
-        <v>0.12627379999999999</v>
+        <v>0.47229149999999998</v>
       </c>
       <c r="J41" s="3">
-        <v>17.946650000000002</v>
+        <v>8.6851199999999995</v>
       </c>
       <c r="K41" s="3">
-        <v>3.87974</v>
+        <v>12.532439999999999</v>
       </c>
       <c r="L41" s="3">
-        <v>9.5551309999999994</v>
+        <v>29.463170000000002</v>
       </c>
       <c r="M41" s="3">
-        <v>2.7277290000000001</v>
+        <v>8.7994669999999999</v>
       </c>
       <c r="N41" s="3">
-        <v>1.1345130000000001</v>
+        <v>0.89314539999999998</v>
       </c>
       <c r="O41" s="3">
-        <v>991.55160000000001</v>
+        <v>991.47230000000002</v>
       </c>
       <c r="P41" s="3">
         <v>46.849273969999999</v>
@@ -2311,49 +3215,49 @@
     </row>
     <row r="42" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
-        <v>45145.56212962963</v>
+        <v>45145.562349537038</v>
       </c>
       <c r="B42" s="3">
-        <v>9.9394589999999994</v>
+        <v>10.53736</v>
       </c>
       <c r="C42" s="3">
-        <v>4.6174010000000001</v>
+        <v>6.4428869999999998</v>
       </c>
       <c r="D42" s="3">
-        <v>71.183580000000006</v>
+        <v>63.143619999999999</v>
       </c>
       <c r="E42" s="3">
-        <v>87.757270000000005</v>
+        <v>92.570269999999994</v>
       </c>
       <c r="F42" s="3">
-        <v>4.0676820000000002E-2</v>
+        <v>4.2804200000000001E-2</v>
       </c>
       <c r="G42" s="3">
-        <v>0.99912789999999996</v>
+        <v>0.9998726</v>
       </c>
       <c r="H42" s="3">
-        <v>5.6936189999999998E-2</v>
+        <v>6.0415910000000003E-2</v>
       </c>
       <c r="I42" s="3">
-        <v>0.1922777</v>
+        <v>0.55253909999999995</v>
       </c>
       <c r="J42" s="3">
-        <v>17.65549</v>
+        <v>8.3721250000000005</v>
       </c>
       <c r="K42" s="3">
-        <v>4.8983990000000004</v>
+        <v>14.45932</v>
       </c>
       <c r="L42" s="3">
-        <v>11.900840000000001</v>
+        <v>33.720829999999999</v>
       </c>
       <c r="M42" s="3">
-        <v>3.443918</v>
+        <v>10.16592</v>
       </c>
       <c r="N42" s="3">
-        <v>1.10365</v>
+        <v>0.93349610000000005</v>
       </c>
       <c r="O42" s="3">
-        <v>991.55060000000003</v>
+        <v>991.48900000000003</v>
       </c>
       <c r="P42" s="3">
         <v>46.849273969999999</v>
@@ -2365,49 +3269,49 @@
     </row>
     <row r="43" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
-        <v>45145.562141203707</v>
+        <v>45145.562361111108</v>
       </c>
       <c r="B43" s="3">
-        <v>9.9371270000000003</v>
+        <v>10.55335</v>
       </c>
       <c r="C43" s="3">
-        <v>4.6230120000000001</v>
+        <v>6.4623100000000004</v>
       </c>
       <c r="D43" s="3">
-        <v>70.176749999999998</v>
+        <v>63.129060000000003</v>
       </c>
       <c r="E43" s="3">
-        <v>86.892650000000003</v>
+        <v>92.611000000000004</v>
       </c>
       <c r="F43" s="3">
-        <v>4.027389E-2</v>
+        <v>4.2829909999999999E-2</v>
       </c>
       <c r="G43" s="3">
-        <v>0.99915209999999999</v>
+        <v>0.99987479999999995</v>
       </c>
       <c r="H43" s="3">
-        <v>5.6401029999999998E-2</v>
+        <v>6.0455340000000003E-2</v>
       </c>
       <c r="I43" s="3">
-        <v>0.1956687</v>
+        <v>0.55811889999999997</v>
       </c>
       <c r="J43" s="3">
-        <v>17.637239999999998</v>
+        <v>8.3345710000000004</v>
       </c>
       <c r="K43" s="3">
-        <v>4.9967119999999996</v>
+        <v>14.58756</v>
       </c>
       <c r="L43" s="3">
-        <v>12.12707</v>
+        <v>34.004249999999999</v>
       </c>
       <c r="M43" s="3">
-        <v>3.5130379999999999</v>
+        <v>10.256080000000001</v>
       </c>
       <c r="N43" s="3">
-        <v>1.1021669999999999</v>
+        <v>0.93440250000000002</v>
       </c>
       <c r="O43" s="3">
-        <v>991.55</v>
+        <v>991.48860000000002</v>
       </c>
       <c r="P43" s="3">
         <v>46.849273969999999</v>
@@ -2419,49 +3323,49 @@
     </row>
     <row r="44" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
-        <v>45145.562152777777</v>
+        <v>45145.562372685185</v>
       </c>
       <c r="B44" s="3">
-        <v>9.9347949999999994</v>
+        <v>10.56935</v>
       </c>
       <c r="C44" s="3">
-        <v>4.6286230000000002</v>
+        <v>6.4817330000000002</v>
       </c>
       <c r="D44" s="3">
-        <v>69.169920000000005</v>
+        <v>63.114510000000003</v>
       </c>
       <c r="E44" s="3">
-        <v>86.028049999999993</v>
+        <v>92.651740000000004</v>
       </c>
       <c r="F44" s="3">
-        <v>3.9870950000000002E-2</v>
+        <v>4.2855610000000002E-2</v>
       </c>
       <c r="G44" s="3">
-        <v>0.99917639999999996</v>
+        <v>0.99987700000000002</v>
       </c>
       <c r="H44" s="3">
-        <v>5.5865869999999998E-2</v>
+        <v>6.0494770000000003E-2</v>
       </c>
       <c r="I44" s="3">
-        <v>0.1990596</v>
+        <v>0.56369860000000005</v>
       </c>
       <c r="J44" s="3">
-        <v>17.61899</v>
+        <v>8.2970159999999993</v>
       </c>
       <c r="K44" s="3">
-        <v>5.0950249999999997</v>
+        <v>14.715809999999999</v>
       </c>
       <c r="L44" s="3">
-        <v>12.353300000000001</v>
+        <v>34.287660000000002</v>
       </c>
       <c r="M44" s="3">
-        <v>3.5821589999999999</v>
+        <v>10.34624</v>
       </c>
       <c r="N44" s="3">
-        <v>1.1006849999999999</v>
+        <v>0.9353089</v>
       </c>
       <c r="O44" s="3">
-        <v>991.54939999999999</v>
+        <v>991.48820000000001</v>
       </c>
       <c r="P44" s="3">
         <v>46.849273969999999</v>
@@ -2473,49 +3377,49 @@
     </row>
     <row r="45" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
-        <v>45145.562164351853</v>
+        <v>45145.562384259261</v>
       </c>
       <c r="B45" s="3">
-        <v>9.8474459999999997</v>
+        <v>10.352119999999999</v>
       </c>
       <c r="C45" s="3">
-        <v>4.8559169999999998</v>
+        <v>6.555466</v>
       </c>
       <c r="D45" s="3">
-        <v>67.557199999999995</v>
+        <v>63.081829999999997</v>
       </c>
       <c r="E45" s="3">
-        <v>87.602630000000005</v>
+        <v>92.829089999999994</v>
       </c>
       <c r="F45" s="3">
-        <v>4.057115E-2</v>
+        <v>4.2769250000000002E-2</v>
       </c>
       <c r="G45" s="3">
-        <v>0.99950589999999995</v>
+        <v>0.99987230000000005</v>
       </c>
       <c r="H45" s="3">
-        <v>5.7645349999999998E-2</v>
+        <v>6.0366719999999999E-2</v>
       </c>
       <c r="I45" s="3">
-        <v>0.21605009999999999</v>
+        <v>0.81444209999999995</v>
       </c>
       <c r="J45" s="3">
-        <v>13.33713</v>
+        <v>8.1582369999999997</v>
       </c>
       <c r="K45" s="3">
-        <v>7.0925700000000003</v>
+        <v>14.8033</v>
       </c>
       <c r="L45" s="3">
-        <v>16.956800000000001</v>
+        <v>34.200760000000002</v>
       </c>
       <c r="M45" s="3">
-        <v>4.9865729999999999</v>
+        <v>10.40775</v>
       </c>
       <c r="N45" s="3">
-        <v>1.0847709999999999</v>
+        <v>0.93610729999999998</v>
       </c>
       <c r="O45" s="3">
-        <v>991.54110000000003</v>
+        <v>991.49810000000002</v>
       </c>
       <c r="P45" s="3">
         <v>46.849273969999999</v>
@@ -2527,49 +3431,49 @@
     </row>
     <row r="46" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
-        <v>45145.562175925923</v>
+        <v>45145.562395833331</v>
       </c>
       <c r="B46" s="3">
-        <v>9.8414970000000004</v>
+        <v>10.345610000000001</v>
       </c>
       <c r="C46" s="3">
-        <v>4.8686410000000002</v>
+        <v>6.5645480000000003</v>
       </c>
       <c r="D46" s="3">
-        <v>67.054239999999993</v>
+        <v>63.074300000000001</v>
       </c>
       <c r="E46" s="3">
-        <v>87.323909999999998</v>
+        <v>92.848870000000005</v>
       </c>
       <c r="F46" s="3">
-        <v>4.0445189999999999E-2</v>
+        <v>4.2772930000000001E-2</v>
       </c>
       <c r="G46" s="3">
-        <v>0.99953259999999999</v>
+        <v>0.99987269999999995</v>
       </c>
       <c r="H46" s="3">
-        <v>5.7522829999999997E-2</v>
+        <v>6.0372740000000001E-2</v>
       </c>
       <c r="I46" s="3">
-        <v>0.21841240000000001</v>
+        <v>0.82914080000000001</v>
       </c>
       <c r="J46" s="3">
-        <v>13.10486</v>
+        <v>8.1430480000000003</v>
       </c>
       <c r="K46" s="3">
-        <v>7.2205029999999999</v>
+        <v>14.853960000000001</v>
       </c>
       <c r="L46" s="3">
-        <v>17.2516</v>
+        <v>34.297620000000002</v>
       </c>
       <c r="M46" s="3">
-        <v>5.0765190000000002</v>
+        <v>10.44337</v>
       </c>
       <c r="N46" s="3">
-        <v>1.0832489999999999</v>
+        <v>0.93701570000000001</v>
       </c>
       <c r="O46" s="3">
-        <v>991.54060000000004</v>
+        <v>991.49900000000002</v>
       </c>
       <c r="P46" s="3">
         <v>46.849273969999999</v>
@@ -2581,49 +3485,49 @@
     </row>
     <row r="47" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
-        <v>45145.5621875</v>
+        <v>45145.562407407408</v>
       </c>
       <c r="B47" s="3">
-        <v>9.8355479999999993</v>
+        <v>10.3391</v>
       </c>
       <c r="C47" s="3">
-        <v>4.8813649999999997</v>
+        <v>6.5736290000000004</v>
       </c>
       <c r="D47" s="3">
-        <v>66.551280000000006</v>
+        <v>63.066769999999998</v>
       </c>
       <c r="E47" s="3">
-        <v>87.045190000000005</v>
+        <v>92.868639999999999</v>
       </c>
       <c r="F47" s="3">
-        <v>4.0319250000000001E-2</v>
+        <v>4.277661E-2</v>
       </c>
       <c r="G47" s="3">
-        <v>0.99955939999999999</v>
+        <v>0.99987329999999996</v>
       </c>
       <c r="H47" s="3">
-        <v>5.7400310000000003E-2</v>
+        <v>6.0378759999999997E-2</v>
       </c>
       <c r="I47" s="3">
-        <v>0.22077469999999999</v>
+        <v>0.84383960000000002</v>
       </c>
       <c r="J47" s="3">
-        <v>12.872579999999999</v>
+        <v>8.1278579999999998</v>
       </c>
       <c r="K47" s="3">
-        <v>7.3484369999999997</v>
+        <v>14.904629999999999</v>
       </c>
       <c r="L47" s="3">
-        <v>17.546389999999999</v>
+        <v>34.394489999999998</v>
       </c>
       <c r="M47" s="3">
-        <v>5.1664649999999996</v>
+        <v>10.47899</v>
       </c>
       <c r="N47" s="3">
-        <v>1.081728</v>
+        <v>0.93792399999999998</v>
       </c>
       <c r="O47" s="3">
-        <v>991.54020000000003</v>
+        <v>991.49980000000005</v>
       </c>
       <c r="P47" s="3">
         <v>46.849273969999999</v>
@@ -2632,1032 +3536,6 @@
         <v>-91.178958190000003</v>
       </c>
       <c r="R47" s="3"/>
-    </row>
-    <row r="48" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="4">
-        <v>45145.562199074076</v>
-      </c>
-      <c r="B48" s="3">
-        <v>9.9383409999999994</v>
-      </c>
-      <c r="C48" s="3">
-        <v>5.0712039999999998</v>
-      </c>
-      <c r="D48" s="3">
-        <v>65.470830000000007</v>
-      </c>
-      <c r="E48" s="3">
-        <v>89.082210000000003</v>
-      </c>
-      <c r="F48" s="3">
-        <v>4.1199140000000002E-2</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0.99963449999999998</v>
-      </c>
-      <c r="H48" s="3">
-        <v>5.800085E-2</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0.2979464</v>
-      </c>
-      <c r="J48" s="3">
-        <v>11.92445</v>
-      </c>
-      <c r="K48" s="3">
-        <v>8.3271999999999995</v>
-      </c>
-      <c r="L48" s="3">
-        <v>19.821210000000001</v>
-      </c>
-      <c r="M48" s="3">
-        <v>5.8546040000000001</v>
-      </c>
-      <c r="N48" s="3">
-        <v>1.058646</v>
-      </c>
-      <c r="O48" s="3">
-        <v>991.50599999999997</v>
-      </c>
-      <c r="P48" s="3">
-        <v>46.849273969999999</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>-91.178958190000003</v>
-      </c>
-      <c r="R48" s="3"/>
-    </row>
-    <row r="49" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="4">
-        <v>45145.562210648146</v>
-      </c>
-      <c r="B49" s="3">
-        <v>9.9419389999999996</v>
-      </c>
-      <c r="C49" s="3">
-        <v>5.0861970000000003</v>
-      </c>
-      <c r="D49" s="3">
-        <v>65.376509999999996</v>
-      </c>
-      <c r="E49" s="3">
-        <v>89.222239999999999</v>
-      </c>
-      <c r="F49" s="3">
-        <v>4.1259900000000002E-2</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0.99964560000000002</v>
-      </c>
-      <c r="H49" s="3">
-        <v>5.8069519999999999E-2</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0.3024212</v>
-      </c>
-      <c r="J49" s="3">
-        <v>11.78238</v>
-      </c>
-      <c r="K49" s="3">
-        <v>8.4224619999999994</v>
-      </c>
-      <c r="L49" s="3">
-        <v>20.04177</v>
-      </c>
-      <c r="M49" s="3">
-        <v>5.9215809999999998</v>
-      </c>
-      <c r="N49" s="3">
-        <v>1.0570759999999999</v>
-      </c>
-      <c r="O49" s="3">
-        <v>991.50400000000002</v>
-      </c>
-      <c r="P49" s="3">
-        <v>46.849273969999999</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>-91.178958190000003</v>
-      </c>
-      <c r="R49" s="3"/>
-    </row>
-    <row r="50" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="4">
-        <v>45145.562222222223</v>
-      </c>
-      <c r="B50" s="3">
-        <v>9.9455369999999998</v>
-      </c>
-      <c r="C50" s="3">
-        <v>5.1011899999999999</v>
-      </c>
-      <c r="D50" s="3">
-        <v>65.28219</v>
-      </c>
-      <c r="E50" s="3">
-        <v>89.362269999999995</v>
-      </c>
-      <c r="F50" s="3">
-        <v>4.1320669999999997E-2</v>
-      </c>
-      <c r="G50" s="3">
-        <v>0.99965669999999995</v>
-      </c>
-      <c r="H50" s="3">
-        <v>5.8138189999999999E-2</v>
-      </c>
-      <c r="I50" s="3">
-        <v>0.30689610000000001</v>
-      </c>
-      <c r="J50" s="3">
-        <v>11.6403</v>
-      </c>
-      <c r="K50" s="3">
-        <v>8.5177259999999997</v>
-      </c>
-      <c r="L50" s="3">
-        <v>20.262329999999999</v>
-      </c>
-      <c r="M50" s="3">
-        <v>5.9885570000000001</v>
-      </c>
-      <c r="N50" s="3">
-        <v>1.0555049999999999</v>
-      </c>
-      <c r="O50" s="3">
-        <v>991.50199999999995</v>
-      </c>
-      <c r="P50" s="3">
-        <v>46.849273969999999</v>
-      </c>
-      <c r="Q50" s="3">
-        <v>-91.178958190000003</v>
-      </c>
-      <c r="R50" s="3"/>
-    </row>
-    <row r="51" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="4">
-        <v>45145.5622337963</v>
-      </c>
-      <c r="B51" s="3">
-        <v>10.0618</v>
-      </c>
-      <c r="C51" s="3">
-        <v>5.534821</v>
-      </c>
-      <c r="D51" s="3">
-        <v>64.434569999999994</v>
-      </c>
-      <c r="E51" s="3">
-        <v>89.900630000000007</v>
-      </c>
-      <c r="F51" s="3">
-        <v>4.1524529999999997E-2</v>
-      </c>
-      <c r="G51" s="3">
-        <v>0.99972179999999999</v>
-      </c>
-      <c r="H51" s="3">
-        <v>5.8467110000000003E-2</v>
-      </c>
-      <c r="I51" s="3">
-        <v>0.50505350000000004</v>
-      </c>
-      <c r="J51" s="3">
-        <v>10.265309999999999</v>
-      </c>
-      <c r="K51" s="3">
-        <v>8.7315369999999994</v>
-      </c>
-      <c r="L51" s="3">
-        <v>22.61591</v>
-      </c>
-      <c r="M51" s="3">
-        <v>6.7057950000000002</v>
-      </c>
-      <c r="N51" s="3">
-        <v>1.001603</v>
-      </c>
-      <c r="O51" s="3">
-        <v>991.50120000000004</v>
-      </c>
-      <c r="P51" s="3">
-        <v>46.849273969999999</v>
-      </c>
-      <c r="Q51" s="3">
-        <v>-91.178958190000003</v>
-      </c>
-      <c r="R51" s="3"/>
-    </row>
-    <row r="52" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="4">
-        <v>45145.562245370369</v>
-      </c>
-      <c r="B52" s="3">
-        <v>10.07024</v>
-      </c>
-      <c r="C52" s="3">
-        <v>5.5620190000000003</v>
-      </c>
-      <c r="D52" s="3">
-        <v>64.363050000000001</v>
-      </c>
-      <c r="E52" s="3">
-        <v>89.969679999999997</v>
-      </c>
-      <c r="F52" s="3">
-        <v>4.1552770000000003E-2</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0.99972689999999997</v>
-      </c>
-      <c r="H52" s="3">
-        <v>5.8495289999999998E-2</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0.51731090000000002</v>
-      </c>
-      <c r="J52" s="3">
-        <v>10.172610000000001</v>
-      </c>
-      <c r="K52" s="3">
-        <v>8.7635889999999996</v>
-      </c>
-      <c r="L52" s="3">
-        <v>22.789660000000001</v>
-      </c>
-      <c r="M52" s="3">
-        <v>6.7586360000000001</v>
-      </c>
-      <c r="N52" s="3">
-        <v>0.99822489999999997</v>
-      </c>
-      <c r="O52" s="3">
-        <v>991.50040000000001</v>
-      </c>
-      <c r="P52" s="3">
-        <v>46.849273969999999</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>-91.178958190000003</v>
-      </c>
-      <c r="R52" s="3"/>
-    </row>
-    <row r="53" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="4">
-        <v>45145.562256944446</v>
-      </c>
-      <c r="B53" s="3">
-        <v>10.078670000000001</v>
-      </c>
-      <c r="C53" s="3">
-        <v>5.5892160000000004</v>
-      </c>
-      <c r="D53" s="3">
-        <v>64.291529999999995</v>
-      </c>
-      <c r="E53" s="3">
-        <v>90.038740000000004</v>
-      </c>
-      <c r="F53" s="3">
-        <v>4.1581E-2</v>
-      </c>
-      <c r="G53" s="3">
-        <v>0.99973199999999995</v>
-      </c>
-      <c r="H53" s="3">
-        <v>5.8523470000000001E-2</v>
-      </c>
-      <c r="I53" s="3">
-        <v>0.52956829999999999</v>
-      </c>
-      <c r="J53" s="3">
-        <v>10.07991</v>
-      </c>
-      <c r="K53" s="3">
-        <v>8.7956400000000006</v>
-      </c>
-      <c r="L53" s="3">
-        <v>22.963419999999999</v>
-      </c>
-      <c r="M53" s="3">
-        <v>6.8114780000000001</v>
-      </c>
-      <c r="N53" s="3">
-        <v>0.99484669999999997</v>
-      </c>
-      <c r="O53" s="3">
-        <v>991.49959999999999</v>
-      </c>
-      <c r="P53" s="3">
-        <v>46.849273969999999</v>
-      </c>
-      <c r="Q53" s="3">
-        <v>-91.178958190000003</v>
-      </c>
-      <c r="R53" s="3"/>
-    </row>
-    <row r="54" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="4">
-        <v>45145.562268518515</v>
-      </c>
-      <c r="B54" s="3">
-        <v>10.04541</v>
-      </c>
-      <c r="C54" s="3">
-        <v>5.7668929999999996</v>
-      </c>
-      <c r="D54" s="3">
-        <v>63.617570000000001</v>
-      </c>
-      <c r="E54" s="3">
-        <v>91.019729999999996</v>
-      </c>
-      <c r="F54" s="3">
-        <v>4.1983010000000001E-2</v>
-      </c>
-      <c r="G54" s="3">
-        <v>0.99979709999999999</v>
-      </c>
-      <c r="H54" s="3">
-        <v>5.916283E-2</v>
-      </c>
-      <c r="I54" s="3">
-        <v>0.41264830000000002</v>
-      </c>
-      <c r="J54" s="3">
-        <v>9.8567149999999994</v>
-      </c>
-      <c r="K54" s="3">
-        <v>10.852790000000001</v>
-      </c>
-      <c r="L54" s="3">
-        <v>25.910979999999999</v>
-      </c>
-      <c r="M54" s="3">
-        <v>7.7091909999999997</v>
-      </c>
-      <c r="N54" s="3">
-        <v>0.96306139999999996</v>
-      </c>
-      <c r="O54" s="3">
-        <v>991.53340000000003</v>
-      </c>
-      <c r="P54" s="3">
-        <v>46.849273969999999</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>-91.178958190000003</v>
-      </c>
-      <c r="R54" s="3"/>
-    </row>
-    <row r="55" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="4">
-        <v>45145.562280092592</v>
-      </c>
-      <c r="B55" s="3">
-        <v>10.046060000000001</v>
-      </c>
-      <c r="C55" s="3">
-        <v>5.7856759999999996</v>
-      </c>
-      <c r="D55" s="3">
-        <v>63.563569999999999</v>
-      </c>
-      <c r="E55" s="3">
-        <v>91.083370000000002</v>
-      </c>
-      <c r="F55" s="3">
-        <v>4.2008719999999999E-2</v>
-      </c>
-      <c r="G55" s="3">
-        <v>0.99980199999999997</v>
-      </c>
-      <c r="H55" s="3">
-        <v>5.9204189999999997E-2</v>
-      </c>
-      <c r="I55" s="3">
-        <v>0.41058230000000001</v>
-      </c>
-      <c r="J55" s="3">
-        <v>9.8152519999999992</v>
-      </c>
-      <c r="K55" s="3">
-        <v>10.96768</v>
-      </c>
-      <c r="L55" s="3">
-        <v>26.11928</v>
-      </c>
-      <c r="M55" s="3">
-        <v>7.7726430000000004</v>
-      </c>
-      <c r="N55" s="3">
-        <v>0.96020660000000002</v>
-      </c>
-      <c r="O55" s="3">
-        <v>991.53520000000003</v>
-      </c>
-      <c r="P55" s="3">
-        <v>46.849273969999999</v>
-      </c>
-      <c r="Q55" s="3">
-        <v>-91.178958190000003</v>
-      </c>
-      <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="4">
-        <v>45145.562291666669</v>
-      </c>
-      <c r="B56" s="3">
-        <v>10.046720000000001</v>
-      </c>
-      <c r="C56" s="3">
-        <v>5.8044580000000003</v>
-      </c>
-      <c r="D56" s="3">
-        <v>63.50958</v>
-      </c>
-      <c r="E56" s="3">
-        <v>91.147019999999998</v>
-      </c>
-      <c r="F56" s="3">
-        <v>4.2034439999999999E-2</v>
-      </c>
-      <c r="G56" s="3">
-        <v>0.99980690000000005</v>
-      </c>
-      <c r="H56" s="3">
-        <v>5.9245560000000003E-2</v>
-      </c>
-      <c r="I56" s="3">
-        <v>0.4085163</v>
-      </c>
-      <c r="J56" s="3">
-        <v>9.7737879999999997</v>
-      </c>
-      <c r="K56" s="3">
-        <v>11.08258</v>
-      </c>
-      <c r="L56" s="3">
-        <v>26.327580000000001</v>
-      </c>
-      <c r="M56" s="3">
-        <v>7.8360940000000001</v>
-      </c>
-      <c r="N56" s="3">
-        <v>0.95735170000000003</v>
-      </c>
-      <c r="O56" s="3">
-        <v>991.53700000000003</v>
-      </c>
-      <c r="P56" s="3">
-        <v>46.849273969999999</v>
-      </c>
-      <c r="Q56" s="3">
-        <v>-91.178958190000003</v>
-      </c>
-      <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="4">
-        <v>45145.562303240738</v>
-      </c>
-      <c r="B57" s="3">
-        <v>10.305400000000001</v>
-      </c>
-      <c r="C57" s="3">
-        <v>6.1607070000000004</v>
-      </c>
-      <c r="D57" s="3">
-        <v>63.436599999999999</v>
-      </c>
-      <c r="E57" s="3">
-        <v>91.961160000000007</v>
-      </c>
-      <c r="F57" s="3">
-        <v>4.2389679999999999E-2</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0.99983379999999999</v>
-      </c>
-      <c r="H57" s="3">
-        <v>5.9774750000000001E-2</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0.47020050000000002</v>
-      </c>
-      <c r="J57" s="3">
-        <v>8.8465550000000004</v>
-      </c>
-      <c r="K57" s="3">
-        <v>12.21762</v>
-      </c>
-      <c r="L57" s="3">
-        <v>28.868210000000001</v>
-      </c>
-      <c r="M57" s="3">
-        <v>8.6171039999999994</v>
-      </c>
-      <c r="N57" s="3">
-        <v>0.9037345</v>
-      </c>
-      <c r="O57" s="3">
-        <v>991.47940000000006</v>
-      </c>
-      <c r="P57" s="3">
-        <v>46.849273969999999</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>-91.178958190000003</v>
-      </c>
-      <c r="R57" s="3"/>
-    </row>
-    <row r="58" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="4">
-        <v>45145.562314814815</v>
-      </c>
-      <c r="B58" s="3">
-        <v>10.31851</v>
-      </c>
-      <c r="C58" s="3">
-        <v>6.1833989999999996</v>
-      </c>
-      <c r="D58" s="3">
-        <v>63.418660000000003</v>
-      </c>
-      <c r="E58" s="3">
-        <v>92.025689999999997</v>
-      </c>
-      <c r="F58" s="3">
-        <v>4.2417299999999998E-2</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0.99983659999999996</v>
-      </c>
-      <c r="H58" s="3">
-        <v>5.98167E-2</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0.47089750000000002</v>
-      </c>
-      <c r="J58" s="3">
-        <v>8.7927429999999998</v>
-      </c>
-      <c r="K58" s="3">
-        <v>12.322559999999999</v>
-      </c>
-      <c r="L58" s="3">
-        <v>29.06653</v>
-      </c>
-      <c r="M58" s="3">
-        <v>8.6778919999999999</v>
-      </c>
-      <c r="N58" s="3">
-        <v>0.90020480000000003</v>
-      </c>
-      <c r="O58" s="3">
-        <v>991.47709999999995</v>
-      </c>
-      <c r="P58" s="3">
-        <v>46.849273969999999</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>-91.178958190000003</v>
-      </c>
-      <c r="R58" s="3"/>
-    </row>
-    <row r="59" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="4">
-        <v>45145.562326388892</v>
-      </c>
-      <c r="B59" s="3">
-        <v>10.331619999999999</v>
-      </c>
-      <c r="C59" s="3">
-        <v>6.2060919999999999</v>
-      </c>
-      <c r="D59" s="3">
-        <v>63.400709999999997</v>
-      </c>
-      <c r="E59" s="3">
-        <v>92.090220000000002</v>
-      </c>
-      <c r="F59" s="3">
-        <v>4.2444910000000002E-2</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0.99983940000000004</v>
-      </c>
-      <c r="H59" s="3">
-        <v>5.9858639999999998E-2</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0.47159450000000003</v>
-      </c>
-      <c r="J59" s="3">
-        <v>8.7389320000000001</v>
-      </c>
-      <c r="K59" s="3">
-        <v>12.4275</v>
-      </c>
-      <c r="L59" s="3">
-        <v>29.264849999999999</v>
-      </c>
-      <c r="M59" s="3">
-        <v>8.7386789999999994</v>
-      </c>
-      <c r="N59" s="3">
-        <v>0.89667520000000001</v>
-      </c>
-      <c r="O59" s="3">
-        <v>991.47469999999998</v>
-      </c>
-      <c r="P59" s="3">
-        <v>46.849273969999999</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>-91.178958190000003</v>
-      </c>
-      <c r="R59" s="3"/>
-    </row>
-    <row r="60" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="4">
-        <v>45145.562337962961</v>
-      </c>
-      <c r="B60" s="3">
-        <v>10.34474</v>
-      </c>
-      <c r="C60" s="3">
-        <v>6.2287850000000002</v>
-      </c>
-      <c r="D60" s="3">
-        <v>63.382759999999998</v>
-      </c>
-      <c r="E60" s="3">
-        <v>92.154750000000007</v>
-      </c>
-      <c r="F60" s="3">
-        <v>4.2472530000000001E-2</v>
-      </c>
-      <c r="G60" s="3">
-        <v>0.99984220000000001</v>
-      </c>
-      <c r="H60" s="3">
-        <v>5.9900580000000002E-2</v>
-      </c>
-      <c r="I60" s="3">
-        <v>0.47229149999999998</v>
-      </c>
-      <c r="J60" s="3">
-        <v>8.6851199999999995</v>
-      </c>
-      <c r="K60" s="3">
-        <v>12.532439999999999</v>
-      </c>
-      <c r="L60" s="3">
-        <v>29.463170000000002</v>
-      </c>
-      <c r="M60" s="3">
-        <v>8.7994669999999999</v>
-      </c>
-      <c r="N60" s="3">
-        <v>0.89314539999999998</v>
-      </c>
-      <c r="O60" s="3">
-        <v>991.47230000000002</v>
-      </c>
-      <c r="P60" s="3">
-        <v>46.849273969999999</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>-91.178958190000003</v>
-      </c>
-      <c r="R60" s="3"/>
-    </row>
-    <row r="61" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="4">
-        <v>45145.562349537038</v>
-      </c>
-      <c r="B61" s="3">
-        <v>10.53736</v>
-      </c>
-      <c r="C61" s="3">
-        <v>6.4428869999999998</v>
-      </c>
-      <c r="D61" s="3">
-        <v>63.143619999999999</v>
-      </c>
-      <c r="E61" s="3">
-        <v>92.570269999999994</v>
-      </c>
-      <c r="F61" s="3">
-        <v>4.2804200000000001E-2</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0.9998726</v>
-      </c>
-      <c r="H61" s="3">
-        <v>6.0415910000000003E-2</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0.55253909999999995</v>
-      </c>
-      <c r="J61" s="3">
-        <v>8.3721250000000005</v>
-      </c>
-      <c r="K61" s="3">
-        <v>14.45932</v>
-      </c>
-      <c r="L61" s="3">
-        <v>33.720829999999999</v>
-      </c>
-      <c r="M61" s="3">
-        <v>10.16592</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0.93349610000000005</v>
-      </c>
-      <c r="O61" s="3">
-        <v>991.48900000000003</v>
-      </c>
-      <c r="P61" s="3">
-        <v>46.849273969999999</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>-91.178958190000003</v>
-      </c>
-      <c r="R61" s="3"/>
-    </row>
-    <row r="62" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="4">
-        <v>45145.562361111108</v>
-      </c>
-      <c r="B62" s="3">
-        <v>10.55335</v>
-      </c>
-      <c r="C62" s="3">
-        <v>6.4623100000000004</v>
-      </c>
-      <c r="D62" s="3">
-        <v>63.129060000000003</v>
-      </c>
-      <c r="E62" s="3">
-        <v>92.611000000000004</v>
-      </c>
-      <c r="F62" s="3">
-        <v>4.2829909999999999E-2</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0.99987479999999995</v>
-      </c>
-      <c r="H62" s="3">
-        <v>6.0455340000000003E-2</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0.55811889999999997</v>
-      </c>
-      <c r="J62" s="3">
-        <v>8.3345710000000004</v>
-      </c>
-      <c r="K62" s="3">
-        <v>14.58756</v>
-      </c>
-      <c r="L62" s="3">
-        <v>34.004249999999999</v>
-      </c>
-      <c r="M62" s="3">
-        <v>10.256080000000001</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0.93440250000000002</v>
-      </c>
-      <c r="O62" s="3">
-        <v>991.48860000000002</v>
-      </c>
-      <c r="P62" s="3">
-        <v>46.849273969999999</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>-91.178958190000003</v>
-      </c>
-      <c r="R62" s="3"/>
-    </row>
-    <row r="63" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="4">
-        <v>45145.562372685185</v>
-      </c>
-      <c r="B63" s="3">
-        <v>10.56935</v>
-      </c>
-      <c r="C63" s="3">
-        <v>6.4817330000000002</v>
-      </c>
-      <c r="D63" s="3">
-        <v>63.114510000000003</v>
-      </c>
-      <c r="E63" s="3">
-        <v>92.651740000000004</v>
-      </c>
-      <c r="F63" s="3">
-        <v>4.2855610000000002E-2</v>
-      </c>
-      <c r="G63" s="3">
-        <v>0.99987700000000002</v>
-      </c>
-      <c r="H63" s="3">
-        <v>6.0494770000000003E-2</v>
-      </c>
-      <c r="I63" s="3">
-        <v>0.56369860000000005</v>
-      </c>
-      <c r="J63" s="3">
-        <v>8.2970159999999993</v>
-      </c>
-      <c r="K63" s="3">
-        <v>14.715809999999999</v>
-      </c>
-      <c r="L63" s="3">
-        <v>34.287660000000002</v>
-      </c>
-      <c r="M63" s="3">
-        <v>10.34624</v>
-      </c>
-      <c r="N63" s="3">
-        <v>0.9353089</v>
-      </c>
-      <c r="O63" s="3">
-        <v>991.48820000000001</v>
-      </c>
-      <c r="P63" s="3">
-        <v>46.849273969999999</v>
-      </c>
-      <c r="Q63" s="3">
-        <v>-91.178958190000003</v>
-      </c>
-      <c r="R63" s="3"/>
-    </row>
-    <row r="64" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="4">
-        <v>45145.562384259261</v>
-      </c>
-      <c r="B64" s="3">
-        <v>10.352119999999999</v>
-      </c>
-      <c r="C64" s="3">
-        <v>6.555466</v>
-      </c>
-      <c r="D64" s="3">
-        <v>63.081829999999997</v>
-      </c>
-      <c r="E64" s="3">
-        <v>92.829089999999994</v>
-      </c>
-      <c r="F64" s="3">
-        <v>4.2769250000000002E-2</v>
-      </c>
-      <c r="G64" s="3">
-        <v>0.99987230000000005</v>
-      </c>
-      <c r="H64" s="3">
-        <v>6.0366719999999999E-2</v>
-      </c>
-      <c r="I64" s="3">
-        <v>0.81444209999999995</v>
-      </c>
-      <c r="J64" s="3">
-        <v>8.1582369999999997</v>
-      </c>
-      <c r="K64" s="3">
-        <v>14.8033</v>
-      </c>
-      <c r="L64" s="3">
-        <v>34.200760000000002</v>
-      </c>
-      <c r="M64" s="3">
-        <v>10.40775</v>
-      </c>
-      <c r="N64" s="3">
-        <v>0.93610729999999998</v>
-      </c>
-      <c r="O64" s="3">
-        <v>991.49810000000002</v>
-      </c>
-      <c r="P64" s="3">
-        <v>46.849273969999999</v>
-      </c>
-      <c r="Q64" s="3">
-        <v>-91.178958190000003</v>
-      </c>
-      <c r="R64" s="3"/>
-    </row>
-    <row r="65" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="4">
-        <v>45145.562395833331</v>
-      </c>
-      <c r="B65" s="3">
-        <v>10.345610000000001</v>
-      </c>
-      <c r="C65" s="3">
-        <v>6.5645480000000003</v>
-      </c>
-      <c r="D65" s="3">
-        <v>63.074300000000001</v>
-      </c>
-      <c r="E65" s="3">
-        <v>92.848870000000005</v>
-      </c>
-      <c r="F65" s="3">
-        <v>4.2772930000000001E-2</v>
-      </c>
-      <c r="G65" s="3">
-        <v>0.99987269999999995</v>
-      </c>
-      <c r="H65" s="3">
-        <v>6.0372740000000001E-2</v>
-      </c>
-      <c r="I65" s="3">
-        <v>0.82914080000000001</v>
-      </c>
-      <c r="J65" s="3">
-        <v>8.1430480000000003</v>
-      </c>
-      <c r="K65" s="3">
-        <v>14.853960000000001</v>
-      </c>
-      <c r="L65" s="3">
-        <v>34.297620000000002</v>
-      </c>
-      <c r="M65" s="3">
-        <v>10.44337</v>
-      </c>
-      <c r="N65" s="3">
-        <v>0.93701570000000001</v>
-      </c>
-      <c r="O65" s="3">
-        <v>991.49900000000002</v>
-      </c>
-      <c r="P65" s="3">
-        <v>46.849273969999999</v>
-      </c>
-      <c r="Q65" s="3">
-        <v>-91.178958190000003</v>
-      </c>
-      <c r="R65" s="3"/>
-    </row>
-    <row r="66" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="4">
-        <v>45145.562407407408</v>
-      </c>
-      <c r="B66" s="3">
-        <v>10.3391</v>
-      </c>
-      <c r="C66" s="3">
-        <v>6.5736290000000004</v>
-      </c>
-      <c r="D66" s="3">
-        <v>63.066769999999998</v>
-      </c>
-      <c r="E66" s="3">
-        <v>92.868639999999999</v>
-      </c>
-      <c r="F66" s="3">
-        <v>4.277661E-2</v>
-      </c>
-      <c r="G66" s="3">
-        <v>0.99987329999999996</v>
-      </c>
-      <c r="H66" s="3">
-        <v>6.0378759999999997E-2</v>
-      </c>
-      <c r="I66" s="3">
-        <v>0.84383960000000002</v>
-      </c>
-      <c r="J66" s="3">
-        <v>8.1278579999999998</v>
-      </c>
-      <c r="K66" s="3">
-        <v>14.904629999999999</v>
-      </c>
-      <c r="L66" s="3">
-        <v>34.394489999999998</v>
-      </c>
-      <c r="M66" s="3">
-        <v>10.47899</v>
-      </c>
-      <c r="N66" s="3">
-        <v>0.93792399999999998</v>
-      </c>
-      <c r="O66" s="3">
-        <v>991.49980000000005</v>
-      </c>
-      <c r="P66" s="3">
-        <v>46.849273969999999</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>-91.178958190000003</v>
-      </c>
-      <c r="R66" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
